--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77652CD-5E6C-486B-92E5-8F30F215E64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480B475-40D2-4E3E-8231-AF3EC7B160D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="solution general" sheetId="4" r:id="rId1"/>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD2BE86-4C64-44F1-A1A9-696966C4A94F}">
   <dimension ref="A4:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EC88B1-6FB7-4D72-96A3-EA95B82191E4}">
   <dimension ref="A4:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480B475-40D2-4E3E-8231-AF3EC7B160D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18584CE-FAF7-470A-8CC8-D6AB7157D2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="solution general" sheetId="4" r:id="rId1"/>
-    <sheet name="dev board" sheetId="1" r:id="rId2"/>
-    <sheet name="api" sheetId="3" r:id="rId3"/>
-    <sheet name="systeme de gudage" sheetId="5" r:id="rId4"/>
-    <sheet name="robot frame" sheetId="2" r:id="rId5"/>
+    <sheet name="choix solution" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,21 +51,30 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AE8B13D9-A396-4C43-A20E-8A7B163F45C6}</author>
+  </authors>
+  <commentList>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{AE8B13D9-A396-4C43-A20E-8A7B163F45C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Serveur aux states centrale aux charbon</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
-  <si>
-    <t>sol 4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>solution</t>
   </si>
   <si>
-    <t>matrice de descision</t>
-  </si>
-  <si>
-    <t>plateforme de development</t>
-  </si>
-  <si>
     <t>Aspect analysé</t>
   </si>
   <si>
@@ -81,105 +87,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Solutions</t>
-  </si>
-  <si>
-    <t>Jetson nano</t>
-  </si>
-  <si>
-    <t>Coral</t>
-  </si>
-  <si>
-    <t>Raspbery pi</t>
-  </si>
-  <si>
-    <t>cout</t>
-  </si>
-  <si>
-    <t>facilité d'utilisation</t>
-  </si>
-  <si>
-    <t>conpatibilité</t>
-  </si>
-  <si>
-    <t>forte comunauté</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>consomation electrique</t>
-  </si>
-  <si>
-    <t>capacité de calcul pour AI</t>
-  </si>
-  <si>
-    <t>performance general</t>
-  </si>
-  <si>
-    <t>memoire RAM</t>
-  </si>
-  <si>
-    <t>disponibilité  de GPIO</t>
-  </si>
-  <si>
-    <t>connectivité</t>
-  </si>
-  <si>
-    <t>Tensorlow</t>
-  </si>
-  <si>
-    <t>PyTorch</t>
-  </si>
-  <si>
-    <t>Cout</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>acceleration materiel disponible</t>
-  </si>
-  <si>
-    <t>SciKit Learn</t>
-  </si>
-  <si>
-    <t>comunauté</t>
-  </si>
-  <si>
-    <t>documentation</t>
-  </si>
-  <si>
-    <t>abondance d'exemple</t>
-  </si>
-  <si>
-    <t>systeme de guidage du robot</t>
-  </si>
-  <si>
-    <t>aprentassage machine API</t>
-  </si>
-  <si>
-    <t>Camera mono</t>
-  </si>
-  <si>
-    <t>camera steréo</t>
-  </si>
-  <si>
-    <t>Lidar</t>
-  </si>
-  <si>
-    <t>Lidar + camera</t>
-  </si>
-  <si>
-    <t>dimention physique</t>
-  </si>
-  <si>
-    <t>demande sur le processeur</t>
-  </si>
-  <si>
-    <t>prescision</t>
-  </si>
-  <si>
     <t>chassis du robot</t>
   </si>
   <si>
@@ -241,13 +148,28 @@
   </si>
   <si>
     <t>fiabilité réseau</t>
+  </si>
+  <si>
+    <t>santé securité et environement</t>
+  </si>
+  <si>
+    <t>informatique et reseaux</t>
+  </si>
+  <si>
+    <t>gesttion de projet général</t>
+  </si>
+  <si>
+    <t>utilisation en presentation</t>
+  </si>
+  <si>
+    <t>capacité de calcul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,10 +185,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -389,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,12 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,7 +365,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,469 +698,20 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91573C8A-589A-4866-8CC1-BA107A2B0298}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H21" dT="2020-10-02T19:21:38.47" personId="{40BE89BA-05C6-4A7B-83BD-3E59A0799A9B}" id="{AE8B13D9-A396-4C43-A20E-8A7B163F45C6}">
+    <text>Serveur aux states centrale aux charbon</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C7E48C-75EE-43FC-9F92-2C6C0E825192}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BB45FF-7630-4AF6-B7D5-41763E4D817D}">
-  <dimension ref="A5:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD2BE86-4C64-44F1-A1A9-696966C4A94F}">
-  <dimension ref="A4:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EC88B1-6FB7-4D72-96A3-EA95B82191E4}">
   <dimension ref="A4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,60 +723,60 @@
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1298,7 +788,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1327,7 +817,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1356,7 +846,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1385,7 +875,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1414,7 +904,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1443,7 +933,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1472,7 +962,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1501,7 +991,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1530,7 +1020,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1559,7 +1049,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1588,7 +1078,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1617,7 +1107,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1646,7 +1136,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1675,7 +1165,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1704,7 +1194,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1733,7 +1223,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1761,22 +1251,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
         <f>SUM(D8:D23)</f>
         <v>225</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <f>SUM(F8:F23)</f>
         <v>244</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
         <f>SUM(H8:H23)</f>
         <v>230</v>
       </c>
@@ -1795,19 +1285,635 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478746E8-2BFC-4DBD-B851-C753D7AF04E4}">
+  <dimension ref="B8:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f>D12*C12</f>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f>C12*F12</f>
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f>H12*C12</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>D13*C13</f>
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>C13*F13</f>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f>H13*C13</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f>D14*C14</f>
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f>C14*F14</f>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f>H14*C14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f>D19*C19</f>
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f>C19*F19</f>
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f>H19*C19</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>D20*C20</f>
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f>C20*F20</f>
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f>H20*C20</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f>D21*C21</f>
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f>C21*F21</f>
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f>H21*C21</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f>D26*C26</f>
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f>C26*F26</f>
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f>H26*C26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f>D27*C27</f>
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <f>C27*F27</f>
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>H27*C27</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f>D28*C28</f>
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f>C28*F28</f>
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <f>H28*C28</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f>D29*C29</f>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <f>C29*F29</f>
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <f>H29*C29</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <f>D30*C30</f>
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f>C30*F30</f>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <f>H30*C30</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <f>D31*C31</f>
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <f>C31*F31</f>
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f>H31*C31</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>D32*C32</f>
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <f>C32*F32</f>
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <f>H32*C32</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f>D36*C36</f>
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <f>C36*F36</f>
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <f>H36*C36</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E38" si="0">D37*C37</f>
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G38" si="1">C37*F37</f>
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:I38" si="2">H37*C37</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
+        <f>SUM(E12:E40)</f>
+        <v>225</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <f>SUM(G12:G40)</f>
+        <v>244</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
+        <f>SUM(I12:I40)</f>
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1969,14 +2075,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
@@ -1988,6 +2086,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18584CE-FAF7-470A-8CC8-D6AB7157D2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C2B66-D1D8-47EE-AA68-798A64926D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="choix solution" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="MCU" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,25 @@
     <author>tc={AE8B13D9-A396-4C43-A20E-8A7B163F45C6}</author>
   </authors>
   <commentList>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{AE8B13D9-A396-4C43-A20E-8A7B163F45C6}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{AE8B13D9-A396-4C43-A20E-8A7B163F45C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Serveur aux states centrale aux charbon</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6AFB62AC-6E41-422A-8435-A305ACD4D9CC}</author>
+  </authors>
+  <commentList>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{6AFB62AC-6E41-422A-8435-A305ACD4D9CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>solution</t>
   </si>
@@ -150,26 +169,41 @@
     <t>fiabilité réseau</t>
   </si>
   <si>
-    <t>santé securité et environement</t>
-  </si>
-  <si>
-    <t>informatique et reseaux</t>
-  </si>
-  <si>
-    <t>gesttion de projet général</t>
-  </si>
-  <si>
-    <t>utilisation en presentation</t>
-  </si>
-  <si>
     <t>capacité de calcul</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Temps de déploiement (en présentation)</t>
+  </si>
+  <si>
+    <t>Gestion de projet général</t>
+  </si>
+  <si>
+    <t>Utilisation en présentation</t>
+  </si>
+  <si>
+    <t>Informatique et réseaux</t>
+  </si>
+  <si>
+    <t>Santé-sécurité et environnement</t>
+  </si>
+  <si>
+    <t>Microcontroleur</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>nRF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,18 +227,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -239,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -323,11 +364,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,13 +573,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +939,15 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H21" dT="2020-10-02T19:21:38.47" personId="{40BE89BA-05C6-4A7B-83BD-3E59A0799A9B}" id="{AE8B13D9-A396-4C43-A20E-8A7B163F45C6}">
+  <threadedComment ref="H19" dT="2020-10-02T19:21:38.47" personId="{40BE89BA-05C6-4A7B-83BD-3E59A0799A9B}" id="{AE8B13D9-A396-4C43-A20E-8A7B163F45C6}">
+    <text>Serveur aux states centrale aux charbon</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H17" dT="2020-10-02T19:21:38.47" personId="{40BE89BA-05C6-4A7B-83BD-3E59A0799A9B}" id="{6AFB62AC-6E41-422A-8435-A305ACD4D9CC}">
     <text>Serveur aux states centrale aux charbon</text>
   </threadedComment>
 </ThreadedComments>
@@ -710,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EC88B1-6FB7-4D72-96A3-EA95B82191E4}">
   <dimension ref="A4:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1534,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478746E8-2BFC-4DBD-B851-C753D7AF04E4}">
-  <dimension ref="B8:I41"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B7:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,19 +1550,21 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1329,10 +1581,10 @@
       <c r="H9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>3</v>
@@ -1349,540 +1601,580 @@
       <c r="H10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="26">
+        <v>5</v>
+      </c>
+      <c r="D12" s="26">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="26">
         <f>D12*C12</f>
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="26">
+        <v>4</v>
+      </c>
+      <c r="G12" s="26">
         <f>C12*F12</f>
         <v>20</v>
       </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="26">
+        <v>5</v>
+      </c>
+      <c r="I12" s="27">
         <f>H12*C12</f>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="26">
+        <v>3</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="26">
         <f>D13*C13</f>
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="26">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="26">
         <f>C13*F13</f>
         <v>6</v>
       </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="26">
+        <v>5</v>
+      </c>
+      <c r="I13" s="27">
         <f>H13*C13</f>
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="26">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="26">
+        <v>5</v>
+      </c>
+      <c r="E14" s="26">
         <f>D14*C14</f>
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="26">
+        <v>5</v>
+      </c>
+      <c r="G14" s="26">
         <f>C14*F14</f>
         <v>10</v>
       </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="26">
+        <v>3</v>
+      </c>
+      <c r="I14" s="27">
         <f>H14*C14</f>
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26">
+        <v>3</v>
+      </c>
+      <c r="E17" s="26">
+        <f>D17*C17</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="26">
+        <v>5</v>
+      </c>
+      <c r="G17" s="26">
+        <f>C17*F17</f>
+        <v>25</v>
+      </c>
+      <c r="H17" s="26">
+        <v>5</v>
+      </c>
+      <c r="I17" s="27">
+        <f>H17*C17</f>
+        <v>25</v>
+      </c>
+    </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26">
+        <v>4</v>
+      </c>
+      <c r="E18" s="26">
+        <f>D18*C18</f>
+        <v>20</v>
+      </c>
+      <c r="F18" s="26">
+        <v>4</v>
+      </c>
+      <c r="G18" s="26">
+        <f>C18*F18</f>
+        <v>20</v>
+      </c>
+      <c r="H18" s="26">
+        <v>5</v>
+      </c>
+      <c r="I18" s="27">
+        <f>H18*C18</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26">
+        <v>4</v>
+      </c>
+      <c r="D19" s="26">
+        <v>3</v>
+      </c>
+      <c r="E19" s="26">
         <f>D19*C19</f>
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4</v>
+      </c>
+      <c r="G19" s="26">
         <f>C19*F19</f>
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="H19" s="26">
+        <v>4</v>
+      </c>
+      <c r="I19" s="27">
         <f>H19*C19</f>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <f>D20*C20</f>
+      <c r="B20" s="32"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="26">
+        <v>4</v>
+      </c>
+      <c r="D22" s="26">
+        <v>5</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" ref="E22:E28" si="0">D22*C22</f>
         <v>20</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <f>C20*F20</f>
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <f>H20*C20</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <f>D21*C21</f>
+      <c r="F22" s="26">
+        <v>3</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" ref="G22:G28" si="1">C22*F22</f>
         <v>12</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <f>C21*F21</f>
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <f>H21*C21</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <f>D26*C26</f>
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <f>C26*F26</f>
-        <v>12</v>
-      </c>
-      <c r="H26">
+      <c r="H22" s="26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <f>H26*C26</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="I22" s="27">
+        <f t="shared" ref="I22:I28" si="2">H22*C22</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <f>D27*C27</f>
-        <v>20</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <f>C27*F27</f>
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <f>H27*C27</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <f>D28*C28</f>
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <f>C28*F28</f>
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
-        <f>H28*C28</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <f>D29*C29</f>
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <f>C29*F29</f>
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <f>H29*C29</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <f>D30*C30</f>
-        <v>25</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <f>C30*F30</f>
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <f>H30*C30</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <f>D31*C31</f>
-        <v>20</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <f>C31*F31</f>
-        <v>12</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <f>H31*C31</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <f>D32*C32</f>
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <f>C32*F32</f>
-        <v>16</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <f>H32*C32</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f>D36*C36</f>
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <f>C36*F36</f>
-        <v>15</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
-        <f>H36*C36</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ref="E37:E38" si="0">D37*C37</f>
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ref="G37:G38" si="1">C37*F37</f>
-        <v>20</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <f t="shared" ref="I37:I38" si="2">H37*C37</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
+      <c r="C23" s="26">
+        <v>4</v>
+      </c>
+      <c r="D23" s="26">
+        <v>5</v>
+      </c>
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
+      <c r="F23" s="26">
+        <v>5</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="26">
+        <v>2</v>
+      </c>
+      <c r="D24" s="26">
+        <v>2</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="26">
+        <v>5</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="26">
+        <v>5</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="26">
+        <v>2</v>
+      </c>
+      <c r="D25" s="26">
+        <v>2</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="26">
+        <v>5</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="26">
+        <v>5</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="26">
+        <v>4</v>
+      </c>
+      <c r="D27" s="26">
+        <v>5</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="26">
+        <v>3</v>
+      </c>
+      <c r="G27" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26">
+        <v>4</v>
+      </c>
+      <c r="D28" s="26">
+        <v>2</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="26">
+        <v>4</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H28" s="26">
+        <v>5</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="26">
+        <v>3</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
+        <f>D31*C31</f>
+        <v>3</v>
+      </c>
+      <c r="F31" s="26">
+        <v>5</v>
+      </c>
+      <c r="G31" s="26">
+        <f>C31*F31</f>
+        <v>15</v>
+      </c>
+      <c r="H31" s="26">
+        <v>5</v>
+      </c>
+      <c r="I31" s="27">
+        <f>H31*C31</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="26">
+        <v>5</v>
+      </c>
+      <c r="D32" s="26">
+        <v>5</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" ref="E32:E33" si="3">D32*C32</f>
+        <v>25</v>
+      </c>
+      <c r="F32" s="26">
+        <v>4</v>
+      </c>
+      <c r="G32" s="26">
+        <f t="shared" ref="G32:G33" si="4">C32*F32</f>
+        <v>20</v>
+      </c>
+      <c r="H32" s="26">
+        <v>4</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" ref="I32:I33" si="5">H32*C32</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <f>SUM(E12:E40)</f>
+      <c r="C33" s="26">
+        <v>4</v>
+      </c>
+      <c r="D33" s="26">
+        <v>5</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="26">
+        <v>3</v>
+      </c>
+      <c r="G33" s="26">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H33" s="26">
+        <v>3</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29">
+        <f>SUM(E12:E34)</f>
         <v>225</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5">
-        <f>SUM(G12:G40)</f>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29">
+        <f>SUM(G12:G34)</f>
         <v>244</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5">
-        <f>SUM(I12:I40)</f>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30">
+        <f>SUM(I12:I34)</f>
         <v>230</v>
       </c>
     </row>
@@ -1896,27 +2188,573 @@
     <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3598D9CD-A055-4E1F-8AB5-F641C4EF401D}">
+  <dimension ref="B5:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="34">
+        <v>5</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="34">
+        <f>D10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="34">
+        <f>C10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27">
+        <f>H10*C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="34">
+        <f>D11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="34">
+        <f>C11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27">
+        <f>H11*C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="34">
+        <f>D12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="34">
+        <f>C12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27">
+        <f>H12*C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="34">
+        <v>5</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="34">
+        <f>D15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34">
+        <f>C15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27">
+        <f>H15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="34">
+        <v>5</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="34">
+        <f>D16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="34">
+        <f>C16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27">
+        <f>H16*C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="34">
+        <v>4</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="34">
+        <f>D17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34">
+        <f>C17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27">
+        <f>H17*C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="34">
+        <f t="shared" ref="E20:E26" si="0">D20*C20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="34">
+        <f t="shared" ref="G20:G26" si="1">C20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27">
+        <f t="shared" ref="I20:I26" si="2">H20*C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="34">
+        <v>4</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="34">
+        <v>5</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="34">
+        <v>4</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="34">
+        <v>4</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="32"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="34">
+        <v>3</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="34">
+        <f>D29*C29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="34">
+        <f>C29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27">
+        <f>H29*C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="34">
+        <v>5</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="34">
+        <f t="shared" ref="E30:E31" si="3">D30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="34">
+        <f t="shared" ref="G30:G31" si="4">C30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27">
+        <f t="shared" ref="I30:I31" si="5">H30*C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="34">
+        <v>4</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="32"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29">
+        <f>SUM(E10:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29">
+        <f>SUM(G10:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30">
+        <f>SUM(I10:I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF363A2BDE411C4BA7725D7F4DFA5D10" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b0a661350901121da497ecff65aa1b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b01810b4-46bc-4b16-bbb7-ff0231894c60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30665dda15a9972ce96fa4c18aeb19d4" ns2:_="">
     <xsd:import namespace="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
@@ -2074,31 +2912,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13736018-0FEB-4400-9C1B-17924D6E8770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2114,4 +2943,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C2B66-D1D8-47EE-AA68-798A64926D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788BF9EA-AD84-48FE-94F0-4D0A536269E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="choix solution" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>solution</t>
   </si>
@@ -197,6 +197,21 @@
   </si>
   <si>
     <t>nRF</t>
+  </si>
+  <si>
+    <t>Facilité de programmation</t>
+  </si>
+  <si>
+    <t>Spécifications physiques</t>
+  </si>
+  <si>
+    <t>Perfomance de calcul</t>
+  </si>
+  <si>
+    <t>Consommation électrique</t>
+  </si>
+  <si>
+    <t>Raspberry PI</t>
   </si>
 </sst>
 </file>
@@ -957,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EC88B1-6FB7-4D72-96A3-EA95B82191E4}">
   <dimension ref="A4:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
@@ -1539,8 +1554,8 @@
   </sheetPr>
   <dimension ref="B7:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3598D9CD-A055-4E1F-8AB5-F641C4EF401D}">
   <dimension ref="B5:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2251,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I7" s="20"/>
     </row>
@@ -2276,11 +2291,9 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="34">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="26"/>
       <c r="E10" s="34">
         <f>D10*C10</f>
@@ -2301,9 +2314,7 @@
       <c r="B11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="34">
-        <v>3</v>
-      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="26"/>
       <c r="E11" s="34">
         <f>D11*C11</f>
@@ -2324,9 +2335,7 @@
       <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="34">
-        <v>2</v>
-      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="26"/>
       <c r="E12" s="34">
         <f>D12*C12</f>
@@ -2355,7 +2364,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="24"/>
@@ -2367,11 +2376,9 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="34">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="26"/>
       <c r="E15" s="34">
         <f>D15*C15</f>
@@ -2391,11 +2398,9 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="34">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C16" s="34"/>
       <c r="D16" s="26"/>
       <c r="E16" s="34">
         <f>D16*C16</f>
@@ -2413,12 +2418,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="34">
-        <v>4</v>
-      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="26"/>
       <c r="E17" s="34">
         <f>D17*C17</f>
@@ -2458,12 +2459,8 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="34">
-        <v>4</v>
-      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="26"/>
       <c r="E20" s="34">
         <f t="shared" ref="E20:E26" si="0">D20*C20</f>
@@ -2481,12 +2478,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="34">
-        <v>4</v>
-      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="26"/>
       <c r="E21" s="34">
         <f t="shared" si="0"/>
@@ -2504,12 +2497,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="34">
-        <v>2</v>
-      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="26"/>
       <c r="E22" s="34">
         <f t="shared" si="0"/>
@@ -2527,12 +2516,8 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="34">
-        <v>2</v>
-      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="26"/>
       <c r="E23" s="34">
         <f t="shared" si="0"/>
@@ -2553,9 +2538,7 @@
       <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="34">
-        <v>5</v>
-      </c>
+      <c r="C24" s="34"/>
       <c r="D24" s="26"/>
       <c r="E24" s="34">
         <f t="shared" si="0"/>
@@ -2576,9 +2559,7 @@
       <c r="B25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="34">
-        <v>4</v>
-      </c>
+      <c r="C25" s="34"/>
       <c r="D25" s="26"/>
       <c r="E25" s="34">
         <f t="shared" si="0"/>
@@ -2599,9 +2580,7 @@
       <c r="B26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="34">
-        <v>4</v>
-      </c>
+      <c r="C26" s="34"/>
       <c r="D26" s="26"/>
       <c r="E26" s="34">
         <f t="shared" si="0"/>
@@ -2644,9 +2623,7 @@
       <c r="B29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="34">
-        <v>3</v>
-      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="26"/>
       <c r="E29" s="34">
         <f>D29*C29</f>
@@ -2667,9 +2644,7 @@
       <c r="B30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="34">
-        <v>5</v>
-      </c>
+      <c r="C30" s="34"/>
       <c r="D30" s="26"/>
       <c r="E30" s="34">
         <f t="shared" ref="E30:E31" si="3">D30*C30</f>
@@ -2690,9 +2665,7 @@
       <c r="B31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="34">
-        <v>4</v>
-      </c>
+      <c r="C31" s="34"/>
       <c r="D31" s="26"/>
       <c r="E31" s="34">
         <f t="shared" si="3"/>

--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A9BE86-F29F-473B-87C0-30511398EB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FF2596-E316-4427-A493-15166C821F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -857,6 +857,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,6 +894,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,27 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,7 +2296,7 @@
   </sheetPr>
   <dimension ref="B6:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2315,38 +2315,38 @@
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="21" t="s">
         <v>3</v>
       </c>
@@ -2379,94 +2379,94 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="52">
-        <v>5</v>
-      </c>
-      <c r="D12" s="52">
+      <c r="C12" s="29">
+        <v>5</v>
+      </c>
+      <c r="D12" s="29">
         <v>2</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="29">
         <f>D12*C12</f>
         <v>10</v>
       </c>
-      <c r="F12" s="52">
-        <v>4</v>
-      </c>
-      <c r="G12" s="52">
+      <c r="F12" s="29">
+        <v>4</v>
+      </c>
+      <c r="G12" s="29">
         <f>C12*F12</f>
         <v>20</v>
       </c>
-      <c r="H12" s="52">
-        <v>5</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="29">
+        <v>5</v>
+      </c>
+      <c r="I12" s="33">
         <f>H12*C12</f>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="29">
         <v>3</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="29">
         <v>3</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="29">
         <f>D13*C13</f>
         <v>9</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="29">
         <v>2</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="29">
         <f>C13*F13</f>
         <v>6</v>
       </c>
-      <c r="H13" s="52">
-        <v>5</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="29">
+        <v>5</v>
+      </c>
+      <c r="I13" s="33">
         <f>H13*C13</f>
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="29">
         <v>2</v>
       </c>
-      <c r="D14" s="52">
-        <v>5</v>
-      </c>
-      <c r="E14" s="52">
+      <c r="D14" s="29">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29">
         <f>D14*C14</f>
         <v>10</v>
       </c>
-      <c r="F14" s="52">
-        <v>5</v>
-      </c>
-      <c r="G14" s="52">
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
+      <c r="G14" s="29">
         <f>C14*F14</f>
         <v>10</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="29">
         <v>3</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="33">
         <f>H14*C14</f>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2488,94 +2488,94 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="52">
-        <v>5</v>
-      </c>
-      <c r="D17" s="52">
+      <c r="C17" s="29">
+        <v>5</v>
+      </c>
+      <c r="D17" s="29">
         <v>3</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="29">
         <f>D17*C17</f>
         <v>15</v>
       </c>
-      <c r="F17" s="52">
-        <v>5</v>
-      </c>
-      <c r="G17" s="52">
+      <c r="F17" s="29">
+        <v>5</v>
+      </c>
+      <c r="G17" s="29">
         <f>C17*F17</f>
         <v>25</v>
       </c>
-      <c r="H17" s="52">
-        <v>5</v>
-      </c>
-      <c r="I17" s="59">
+      <c r="H17" s="29">
+        <v>5</v>
+      </c>
+      <c r="I17" s="33">
         <f>H17*C17</f>
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="52">
-        <v>5</v>
-      </c>
-      <c r="D18" s="52">
-        <v>4</v>
-      </c>
-      <c r="E18" s="52">
+      <c r="C18" s="29">
+        <v>5</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4</v>
+      </c>
+      <c r="E18" s="29">
         <f>D18*C18</f>
         <v>20</v>
       </c>
-      <c r="F18" s="52">
-        <v>4</v>
-      </c>
-      <c r="G18" s="52">
+      <c r="F18" s="29">
+        <v>4</v>
+      </c>
+      <c r="G18" s="29">
         <f>C18*F18</f>
         <v>20</v>
       </c>
-      <c r="H18" s="52">
-        <v>5</v>
-      </c>
-      <c r="I18" s="59">
+      <c r="H18" s="29">
+        <v>5</v>
+      </c>
+      <c r="I18" s="33">
         <f>H18*C18</f>
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="52">
-        <v>4</v>
-      </c>
-      <c r="D19" s="52">
+      <c r="C19" s="29">
+        <v>4</v>
+      </c>
+      <c r="D19" s="29">
         <v>3</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="29">
         <f>D19*C19</f>
         <v>12</v>
       </c>
-      <c r="F19" s="52">
-        <v>4</v>
-      </c>
-      <c r="G19" s="52">
+      <c r="F19" s="29">
+        <v>4</v>
+      </c>
+      <c r="G19" s="29">
         <f>C19*F19</f>
         <v>16</v>
       </c>
-      <c r="H19" s="52">
-        <v>4</v>
-      </c>
-      <c r="I19" s="59">
+      <c r="H19" s="29">
+        <v>4</v>
+      </c>
+      <c r="I19" s="33">
         <f>H19*C19</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2597,210 +2597,210 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="52">
-        <v>4</v>
-      </c>
-      <c r="D22" s="52">
-        <v>5</v>
-      </c>
-      <c r="E22" s="52">
+      <c r="C22" s="29">
+        <v>4</v>
+      </c>
+      <c r="D22" s="29">
+        <v>5</v>
+      </c>
+      <c r="E22" s="29">
         <f t="shared" ref="E22:E28" si="0">D22*C22</f>
         <v>20</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="29">
         <v>3</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="29">
         <f t="shared" ref="G22:G28" si="1">C22*F22</f>
         <v>12</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="29">
         <v>1</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="33">
         <f t="shared" ref="I22:I28" si="2">H22*C22</f>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="52">
-        <v>4</v>
-      </c>
-      <c r="D23" s="52">
-        <v>5</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="C23" s="29">
+        <v>4</v>
+      </c>
+      <c r="D23" s="29">
+        <v>5</v>
+      </c>
+      <c r="E23" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F23" s="52">
-        <v>5</v>
-      </c>
-      <c r="G23" s="52">
+      <c r="F23" s="29">
+        <v>5</v>
+      </c>
+      <c r="G23" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="29">
         <v>1</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="29">
         <v>2</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="29">
         <v>2</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F24" s="52">
-        <v>5</v>
-      </c>
-      <c r="G24" s="52">
+      <c r="F24" s="29">
+        <v>5</v>
+      </c>
+      <c r="G24" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H24" s="52">
-        <v>5</v>
-      </c>
-      <c r="I24" s="59">
+      <c r="H24" s="29">
+        <v>5</v>
+      </c>
+      <c r="I24" s="33">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="29">
         <v>2</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="29">
         <v>2</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F25" s="52">
-        <v>5</v>
-      </c>
-      <c r="G25" s="52">
+      <c r="F25" s="29">
+        <v>5</v>
+      </c>
+      <c r="G25" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H25" s="52">
-        <v>5</v>
-      </c>
-      <c r="I25" s="59">
+      <c r="H25" s="29">
+        <v>5</v>
+      </c>
+      <c r="I25" s="33">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="52">
-        <v>5</v>
-      </c>
-      <c r="D26" s="52">
-        <v>5</v>
-      </c>
-      <c r="E26" s="52">
+      <c r="C26" s="29">
+        <v>5</v>
+      </c>
+      <c r="D26" s="29">
+        <v>5</v>
+      </c>
+      <c r="E26" s="29">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F26" s="52">
-        <v>4</v>
-      </c>
-      <c r="G26" s="52">
+      <c r="F26" s="29">
+        <v>4</v>
+      </c>
+      <c r="G26" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="29">
         <v>3</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="33">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="52">
-        <v>4</v>
-      </c>
-      <c r="D27" s="52">
-        <v>5</v>
-      </c>
-      <c r="E27" s="52">
+      <c r="C27" s="29">
+        <v>4</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5</v>
+      </c>
+      <c r="E27" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="29">
         <v>3</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="29">
         <v>2</v>
       </c>
-      <c r="I27" s="59">
+      <c r="I27" s="33">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="52">
-        <v>4</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="C28" s="29">
+        <v>4</v>
+      </c>
+      <c r="D28" s="29">
         <v>2</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F28" s="52">
-        <v>4</v>
-      </c>
-      <c r="G28" s="52">
+      <c r="F28" s="29">
+        <v>4</v>
+      </c>
+      <c r="G28" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H28" s="52">
-        <v>5</v>
-      </c>
-      <c r="I28" s="59">
+      <c r="H28" s="29">
+        <v>5</v>
+      </c>
+      <c r="I28" s="33">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="64"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -2822,95 +2822,95 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="29">
         <v>3</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="29">
         <v>1</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="29">
         <f>D31*C31</f>
         <v>3</v>
       </c>
-      <c r="F31" s="52">
-        <v>5</v>
-      </c>
-      <c r="G31" s="52">
+      <c r="F31" s="29">
+        <v>5</v>
+      </c>
+      <c r="G31" s="29">
         <f>C31*F31</f>
         <v>15</v>
       </c>
-      <c r="H31" s="52">
-        <v>5</v>
-      </c>
-      <c r="I31" s="59">
+      <c r="H31" s="29">
+        <v>5</v>
+      </c>
+      <c r="I31" s="33">
         <f>H31*C31</f>
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="52">
-        <v>5</v>
-      </c>
-      <c r="D32" s="52">
-        <v>5</v>
-      </c>
-      <c r="E32" s="52">
+      <c r="C32" s="29">
+        <v>5</v>
+      </c>
+      <c r="D32" s="29">
+        <v>5</v>
+      </c>
+      <c r="E32" s="29">
         <f t="shared" ref="E32:E33" si="3">D32*C32</f>
         <v>25</v>
       </c>
-      <c r="F32" s="52">
-        <v>4</v>
-      </c>
-      <c r="G32" s="52">
+      <c r="F32" s="29">
+        <v>4</v>
+      </c>
+      <c r="G32" s="29">
         <f t="shared" ref="G32:G33" si="4">C32*F32</f>
         <v>20</v>
       </c>
-      <c r="H32" s="52">
-        <v>4</v>
-      </c>
-      <c r="I32" s="59">
+      <c r="H32" s="29">
+        <v>4</v>
+      </c>
+      <c r="I32" s="33">
         <f t="shared" ref="I32:I33" si="5">H32*C32</f>
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="52">
-        <v>4</v>
-      </c>
-      <c r="D33" s="52">
-        <v>5</v>
-      </c>
-      <c r="E33" s="52">
+      <c r="C33" s="29">
+        <v>4</v>
+      </c>
+      <c r="D33" s="29">
+        <v>5</v>
+      </c>
+      <c r="E33" s="29">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="29">
         <v>3</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="29">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="29">
         <v>3</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="33">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -2971,68 +2971,68 @@
   <sheetData>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="52">
-        <v>4</v>
-      </c>
-      <c r="D9" s="52">
+      <c r="C9" s="29">
+        <v>4</v>
+      </c>
+      <c r="D9" s="29">
         <v>2</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="36">
         <f>SUM(C9:D9)</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="29">
         <v>3</v>
       </c>
-      <c r="D10" s="52">
-        <v>4</v>
-      </c>
-      <c r="E10" s="62">
+      <c r="D10" s="29">
+        <v>4</v>
+      </c>
+      <c r="E10" s="36">
         <f t="shared" ref="E10:E11" si="0">SUM(C10:D10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="35">
         <v>1</v>
       </c>
-      <c r="D11" s="61">
-        <v>5</v>
-      </c>
-      <c r="E11" s="63">
+      <c r="D11" s="35">
+        <v>5</v>
+      </c>
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3104,38 +3104,38 @@
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="45"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3670,7 +3670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3598D9CD-A055-4E1F-8AB5-F641C4EF401D}">
   <dimension ref="B5:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3684,38 +3684,38 @@
     <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4186,6 +4186,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF363A2BDE411C4BA7725D7F4DFA5D10" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b0a661350901121da497ecff65aa1b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b01810b4-46bc-4b16-bbb7-ff0231894c60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30665dda15a9972ce96fa4c18aeb19d4" ns2:_="">
     <xsd:import namespace="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
@@ -4343,22 +4358,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13736018-0FEB-4400-9C1B-17924D6E8770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4374,28 +4398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FF2596-E316-4427-A493-15166C821F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A245001C-7F10-4133-B8AB-B496F61B0774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="30990" yWindow="615" windowWidth="20340" windowHeight="13800" firstSheet="2" activeTab="6" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Algorithmes" sheetId="8" r:id="rId2"/>
     <sheet name="choix solution" sheetId="2" r:id="rId3"/>
     <sheet name="MCU" sheetId="7" r:id="rId4"/>
+    <sheet name="Platforme Robo" sheetId="10" r:id="rId5"/>
+    <sheet name="Manutention balle" sheetId="11" r:id="rId6"/>
+    <sheet name="interface de comm" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>solution</t>
   </si>
@@ -194,24 +197,9 @@
     <t>ESP32</t>
   </si>
   <si>
-    <t>nRF</t>
-  </si>
-  <si>
     <t>Facilité de programmation</t>
   </si>
   <si>
-    <t>Spécifications physiques</t>
-  </si>
-  <si>
-    <t>Perfomance de calcul</t>
-  </si>
-  <si>
-    <t>Consommation électrique</t>
-  </si>
-  <si>
-    <t>Raspberry PI</t>
-  </si>
-  <si>
     <t>Comparaison des solutions</t>
   </si>
   <si>
@@ -249,12 +237,105 @@
   </si>
   <si>
     <t>Performance relative</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>Platforme Robotique</t>
+  </si>
+  <si>
+    <t>consomation electrique</t>
+  </si>
+  <si>
+    <t>conectivité</t>
+  </si>
+  <si>
+    <t>nombre de  I/O</t>
+  </si>
+  <si>
+    <t>nRF52</t>
+  </si>
+  <si>
+    <t>Robustesse</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Sur mesure</t>
+  </si>
+  <si>
+    <t>déja concu</t>
+  </si>
+  <si>
+    <t>Coût</t>
+  </si>
+  <si>
+    <t>Temps de mise en place</t>
+  </si>
+  <si>
+    <t>Perfomance pour le but visé</t>
+  </si>
+  <si>
+    <t>Versatilité</t>
+  </si>
+  <si>
+    <t>Agilité</t>
+  </si>
+  <si>
+    <t>Borne du projet</t>
+  </si>
+  <si>
+    <t>Manutention de la balle</t>
+  </si>
+  <si>
+    <t>Implementation AI</t>
+  </si>
+  <si>
+    <t>Presision de la manutention</t>
+  </si>
+  <si>
+    <t>Implementation mecanique</t>
+  </si>
+  <si>
+    <t>Statique</t>
+  </si>
+  <si>
+    <t>Avec servo</t>
+  </si>
+  <si>
+    <t>Interface de communication</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>nrf24L 3.4Ghz</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Vitesse de comunication</t>
+  </si>
+  <si>
+    <t>Materiel suplementaire</t>
+  </si>
+  <si>
+    <t>Disponibilité microcontroleur</t>
+  </si>
+  <si>
+    <t>Pond.          (1 - 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,32 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -599,15 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -812,76 +858,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,16 +967,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,10 +1015,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,7 +1072,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{89659704-B45D-4B6B-94E5-7B8A2AE63747}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1029,7 +1151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1229,7 +1351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456382752"/>
@@ -1288,7 +1410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1033142816"/>
@@ -1330,7 +1452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1367,7 +1489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2308,633 +2430,633 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="25" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29">
-        <v>5</v>
-      </c>
-      <c r="D12" s="29">
+      <c r="C12" s="21">
+        <v>5</v>
+      </c>
+      <c r="D12" s="21">
         <v>2</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="21">
         <f>D12*C12</f>
         <v>10</v>
       </c>
-      <c r="F12" s="29">
-        <v>4</v>
-      </c>
-      <c r="G12" s="29">
+      <c r="F12" s="21">
+        <v>4</v>
+      </c>
+      <c r="G12" s="21">
         <f>C12*F12</f>
         <v>20</v>
       </c>
-      <c r="H12" s="29">
-        <v>5</v>
-      </c>
-      <c r="I12" s="33">
+      <c r="H12" s="21">
+        <v>5</v>
+      </c>
+      <c r="I12" s="25">
         <f>H12*C12</f>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="29">
-        <v>3</v>
-      </c>
-      <c r="D13" s="29">
-        <v>3</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21">
         <f>D13*C13</f>
         <v>9</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="21">
         <v>2</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="21">
         <f>C13*F13</f>
         <v>6</v>
       </c>
-      <c r="H13" s="29">
-        <v>5</v>
-      </c>
-      <c r="I13" s="33">
+      <c r="H13" s="21">
+        <v>5</v>
+      </c>
+      <c r="I13" s="25">
         <f>H13*C13</f>
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="21">
         <v>2</v>
       </c>
-      <c r="D14" s="29">
-        <v>5</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="D14" s="21">
+        <v>5</v>
+      </c>
+      <c r="E14" s="21">
         <f>D14*C14</f>
         <v>10</v>
       </c>
-      <c r="F14" s="29">
-        <v>5</v>
-      </c>
-      <c r="G14" s="29">
+      <c r="F14" s="21">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21">
         <f>C14*F14</f>
         <v>10</v>
       </c>
-      <c r="H14" s="29">
-        <v>3</v>
-      </c>
-      <c r="I14" s="33">
+      <c r="H14" s="21">
+        <v>3</v>
+      </c>
+      <c r="I14" s="25">
         <f>H14*C14</f>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="29">
-        <v>5</v>
-      </c>
-      <c r="D17" s="29">
-        <v>3</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="C17" s="21">
+        <v>5</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3</v>
+      </c>
+      <c r="E17" s="21">
         <f>D17*C17</f>
         <v>15</v>
       </c>
-      <c r="F17" s="29">
-        <v>5</v>
-      </c>
-      <c r="G17" s="29">
+      <c r="F17" s="21">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21">
         <f>C17*F17</f>
         <v>25</v>
       </c>
-      <c r="H17" s="29">
-        <v>5</v>
-      </c>
-      <c r="I17" s="33">
+      <c r="H17" s="21">
+        <v>5</v>
+      </c>
+      <c r="I17" s="25">
         <f>H17*C17</f>
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="29">
-        <v>5</v>
-      </c>
-      <c r="D18" s="29">
-        <v>4</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="C18" s="21">
+        <v>5</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4</v>
+      </c>
+      <c r="E18" s="21">
         <f>D18*C18</f>
         <v>20</v>
       </c>
-      <c r="F18" s="29">
-        <v>4</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="F18" s="21">
+        <v>4</v>
+      </c>
+      <c r="G18" s="21">
         <f>C18*F18</f>
         <v>20</v>
       </c>
-      <c r="H18" s="29">
-        <v>5</v>
-      </c>
-      <c r="I18" s="33">
+      <c r="H18" s="21">
+        <v>5</v>
+      </c>
+      <c r="I18" s="25">
         <f>H18*C18</f>
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="29">
-        <v>4</v>
-      </c>
-      <c r="D19" s="29">
-        <v>3</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="C19" s="21">
+        <v>4</v>
+      </c>
+      <c r="D19" s="21">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21">
         <f>D19*C19</f>
         <v>12</v>
       </c>
-      <c r="F19" s="29">
-        <v>4</v>
-      </c>
-      <c r="G19" s="29">
+      <c r="F19" s="21">
+        <v>4</v>
+      </c>
+      <c r="G19" s="21">
         <f>C19*F19</f>
         <v>16</v>
       </c>
-      <c r="H19" s="29">
-        <v>4</v>
-      </c>
-      <c r="I19" s="33">
+      <c r="H19" s="21">
+        <v>4</v>
+      </c>
+      <c r="I19" s="25">
         <f>H19*C19</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="29">
-        <v>4</v>
-      </c>
-      <c r="D22" s="29">
-        <v>5</v>
-      </c>
-      <c r="E22" s="29">
+      <c r="C22" s="21">
+        <v>4</v>
+      </c>
+      <c r="D22" s="21">
+        <v>5</v>
+      </c>
+      <c r="E22" s="21">
         <f t="shared" ref="E22:E28" si="0">D22*C22</f>
         <v>20</v>
       </c>
-      <c r="F22" s="29">
-        <v>3</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="F22" s="21">
+        <v>3</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" ref="G22:G28" si="1">C22*F22</f>
         <v>12</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="21">
         <v>1</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="25">
         <f t="shared" ref="I22:I28" si="2">H22*C22</f>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="29">
-        <v>4</v>
-      </c>
-      <c r="D23" s="29">
-        <v>5</v>
-      </c>
-      <c r="E23" s="29">
+      <c r="C23" s="21">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21">
+        <v>5</v>
+      </c>
+      <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F23" s="29">
-        <v>5</v>
-      </c>
-      <c r="G23" s="29">
+      <c r="F23" s="21">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="21">
         <v>1</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="25">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="21">
         <v>2</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="21">
         <v>2</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F24" s="29">
-        <v>5</v>
-      </c>
-      <c r="G24" s="29">
+      <c r="F24" s="21">
+        <v>5</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H24" s="29">
-        <v>5</v>
-      </c>
-      <c r="I24" s="33">
+      <c r="H24" s="21">
+        <v>5</v>
+      </c>
+      <c r="I24" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="21">
         <v>2</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="21">
         <v>2</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F25" s="29">
-        <v>5</v>
-      </c>
-      <c r="G25" s="29">
+      <c r="F25" s="21">
+        <v>5</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H25" s="29">
-        <v>5</v>
-      </c>
-      <c r="I25" s="33">
+      <c r="H25" s="21">
+        <v>5</v>
+      </c>
+      <c r="I25" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="29">
-        <v>5</v>
-      </c>
-      <c r="D26" s="29">
-        <v>5</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="C26" s="21">
+        <v>5</v>
+      </c>
+      <c r="D26" s="21">
+        <v>5</v>
+      </c>
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F26" s="29">
-        <v>4</v>
-      </c>
-      <c r="G26" s="29">
+      <c r="F26" s="21">
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H26" s="29">
-        <v>3</v>
-      </c>
-      <c r="I26" s="33">
+      <c r="H26" s="21">
+        <v>3</v>
+      </c>
+      <c r="I26" s="25">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="29">
-        <v>4</v>
-      </c>
-      <c r="D27" s="29">
-        <v>5</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="C27" s="21">
+        <v>4</v>
+      </c>
+      <c r="D27" s="21">
+        <v>5</v>
+      </c>
+      <c r="E27" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F27" s="29">
-        <v>3</v>
-      </c>
-      <c r="G27" s="29">
+      <c r="F27" s="21">
+        <v>3</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="21">
         <v>2</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="25">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="29">
-        <v>4</v>
-      </c>
-      <c r="D28" s="29">
+      <c r="C28" s="21">
+        <v>4</v>
+      </c>
+      <c r="D28" s="21">
         <v>2</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F28" s="29">
-        <v>4</v>
-      </c>
-      <c r="G28" s="29">
+      <c r="F28" s="21">
+        <v>4</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H28" s="29">
-        <v>5</v>
-      </c>
-      <c r="I28" s="33">
+      <c r="H28" s="21">
+        <v>5</v>
+      </c>
+      <c r="I28" s="25">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="29">
-        <v>3</v>
-      </c>
-      <c r="D31" s="29">
+      <c r="C31" s="21">
+        <v>3</v>
+      </c>
+      <c r="D31" s="21">
         <v>1</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="21">
         <f>D31*C31</f>
         <v>3</v>
       </c>
-      <c r="F31" s="29">
-        <v>5</v>
-      </c>
-      <c r="G31" s="29">
+      <c r="F31" s="21">
+        <v>5</v>
+      </c>
+      <c r="G31" s="21">
         <f>C31*F31</f>
         <v>15</v>
       </c>
-      <c r="H31" s="29">
-        <v>5</v>
-      </c>
-      <c r="I31" s="33">
+      <c r="H31" s="21">
+        <v>5</v>
+      </c>
+      <c r="I31" s="25">
         <f>H31*C31</f>
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="29">
-        <v>5</v>
-      </c>
-      <c r="D32" s="29">
-        <v>5</v>
-      </c>
-      <c r="E32" s="29">
+      <c r="C32" s="21">
+        <v>5</v>
+      </c>
+      <c r="D32" s="21">
+        <v>5</v>
+      </c>
+      <c r="E32" s="21">
         <f t="shared" ref="E32:E33" si="3">D32*C32</f>
         <v>25</v>
       </c>
-      <c r="F32" s="29">
-        <v>4</v>
-      </c>
-      <c r="G32" s="29">
+      <c r="F32" s="21">
+        <v>4</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" ref="G32:G33" si="4">C32*F32</f>
         <v>20</v>
       </c>
-      <c r="H32" s="29">
-        <v>4</v>
-      </c>
-      <c r="I32" s="33">
+      <c r="H32" s="21">
+        <v>4</v>
+      </c>
+      <c r="I32" s="25">
         <f t="shared" ref="I32:I33" si="5">H32*C32</f>
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="29">
-        <v>4</v>
-      </c>
-      <c r="D33" s="29">
-        <v>5</v>
-      </c>
-      <c r="E33" s="29">
+      <c r="C33" s="21">
+        <v>4</v>
+      </c>
+      <c r="D33" s="21">
+        <v>5</v>
+      </c>
+      <c r="E33" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F33" s="29">
-        <v>3</v>
-      </c>
-      <c r="G33" s="29">
+      <c r="F33" s="21">
+        <v>3</v>
+      </c>
+      <c r="G33" s="21">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="H33" s="29">
-        <v>3</v>
-      </c>
-      <c r="I33" s="33">
+      <c r="H33" s="21">
+        <v>3</v>
+      </c>
+      <c r="I33" s="25">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15">
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10">
         <f>SUM(E12:E34)</f>
         <v>225</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
         <f>SUM(G12:G34)</f>
         <v>244</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11">
         <f>SUM(I12:I34)</f>
         <v>230</v>
       </c>
@@ -2971,75 +3093,75 @@
   <sheetData>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="B8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="29">
-        <v>4</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="B9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21">
         <v>2</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="28">
         <f>SUM(C9:D9)</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="29">
-        <v>4</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="B10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28">
         <f t="shared" ref="E10:E11" si="0">SUM(C10:D10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="27">
         <v>1</v>
       </c>
-      <c r="D11" s="35">
-        <v>5</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="D11" s="27">
+        <v>5</v>
+      </c>
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3047,7 +3169,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3055,7 +3177,7 @@
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3063,7 +3185,7 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3071,7 +3193,7 @@
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -3092,50 +3214,49 @@
   <dimension ref="A4:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3171,27 +3292,27 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="73">
+        <v>5</v>
+      </c>
+      <c r="C8" s="73">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="73">
         <f>$B8*$C8</f>
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="73">
+        <v>4</v>
+      </c>
+      <c r="F8" s="73">
         <f>B8*E8</f>
         <v>20</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="73">
+        <v>5</v>
+      </c>
+      <c r="H8" s="73">
         <f>G8*B8</f>
         <v>25</v>
       </c>
@@ -3200,27 +3321,27 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="73">
+        <v>4</v>
+      </c>
+      <c r="C9" s="73">
+        <v>5</v>
+      </c>
+      <c r="D9" s="73">
         <f t="shared" ref="D9:D23" si="0">$B9*$C9</f>
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="73">
+        <v>3</v>
+      </c>
+      <c r="F9" s="73">
         <f t="shared" ref="F9:F23" si="1">B9*E9</f>
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="73">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="73">
         <f t="shared" ref="H9:H23" si="2">G9*B9</f>
         <v>4</v>
       </c>
@@ -3229,27 +3350,27 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="73">
+        <v>4</v>
+      </c>
+      <c r="C10" s="73">
+        <v>5</v>
+      </c>
+      <c r="D10" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="73">
+        <v>5</v>
+      </c>
+      <c r="F10" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="73">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="73">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3258,27 +3379,27 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="73">
+        <v>3</v>
+      </c>
+      <c r="C11" s="73">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="73">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="73">
+        <v>5</v>
+      </c>
+      <c r="F11" s="73">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="73">
+        <v>5</v>
+      </c>
+      <c r="H11" s="73">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3287,27 +3408,27 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="73">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="73">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="73">
+        <v>5</v>
+      </c>
+      <c r="F12" s="73">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="73">
+        <v>5</v>
+      </c>
+      <c r="H12" s="73">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3316,27 +3437,27 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="73">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="73">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="73">
+        <v>5</v>
+      </c>
+      <c r="F13" s="73">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="73">
+        <v>5</v>
+      </c>
+      <c r="H13" s="73">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3345,27 +3466,27 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="73">
+        <v>3</v>
+      </c>
+      <c r="C14" s="73">
+        <v>3</v>
+      </c>
+      <c r="D14" s="73">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="73">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="73">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="73">
+        <v>5</v>
+      </c>
+      <c r="H14" s="73">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3374,27 +3495,27 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="73">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="73">
+        <v>5</v>
+      </c>
+      <c r="D15" s="73">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="73">
+        <v>5</v>
+      </c>
+      <c r="F15" s="73">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="73">
+        <v>3</v>
+      </c>
+      <c r="H15" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -3403,27 +3524,27 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="73">
+        <v>4</v>
+      </c>
+      <c r="C16" s="73">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="73">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="73">
+        <v>4</v>
+      </c>
+      <c r="F16" s="73">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="73">
+        <v>5</v>
+      </c>
+      <c r="H16" s="73">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -3432,27 +3553,27 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="73">
+        <v>5</v>
+      </c>
+      <c r="C17" s="73">
+        <v>5</v>
+      </c>
+      <c r="D17" s="73">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="73">
+        <v>4</v>
+      </c>
+      <c r="F17" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="73">
+        <v>4</v>
+      </c>
+      <c r="H17" s="73">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -3461,27 +3582,27 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="73">
+        <v>4</v>
+      </c>
+      <c r="C18" s="73">
+        <v>5</v>
+      </c>
+      <c r="D18" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="73">
+        <v>3</v>
+      </c>
+      <c r="F18" s="73">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="73">
+        <v>3</v>
+      </c>
+      <c r="H18" s="73">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -3490,27 +3611,27 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="73">
+        <v>5</v>
+      </c>
+      <c r="C19" s="73">
+        <v>5</v>
+      </c>
+      <c r="D19" s="73">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="73">
+        <v>4</v>
+      </c>
+      <c r="F19" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="73">
+        <v>3</v>
+      </c>
+      <c r="H19" s="73">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3519,27 +3640,27 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="73">
+        <v>4</v>
+      </c>
+      <c r="C20" s="73">
+        <v>5</v>
+      </c>
+      <c r="D20" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="73">
+        <v>3</v>
+      </c>
+      <c r="F20" s="73">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="73">
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="73">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -3548,27 +3669,27 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="73">
+        <v>5</v>
+      </c>
+      <c r="C21" s="73">
+        <v>3</v>
+      </c>
+      <c r="D21" s="73">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="73">
+        <v>5</v>
+      </c>
+      <c r="F21" s="73">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="73">
+        <v>5</v>
+      </c>
+      <c r="H21" s="73">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3577,27 +3698,27 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="73">
+        <v>5</v>
+      </c>
+      <c r="C22" s="73">
+        <v>4</v>
+      </c>
+      <c r="D22" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="73">
+        <v>4</v>
+      </c>
+      <c r="F22" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="73">
+        <v>5</v>
+      </c>
+      <c r="H22" s="73">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3606,48 +3727,66 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="73">
+        <v>4</v>
+      </c>
+      <c r="C23" s="73">
+        <v>3</v>
+      </c>
+      <c r="D23" s="73">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="73">
+        <v>4</v>
+      </c>
+      <c r="F23" s="73">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="73">
+        <v>4</v>
+      </c>
+      <c r="H23" s="73">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
         <f>SUM(D8:D23)</f>
         <v>225</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
         <f>SUM(F8:F23)</f>
         <v>244</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <f>SUM(H8:H23)</f>
         <v>230</v>
       </c>
@@ -3668,508 +3807,388 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3598D9CD-A055-4E1F-8AB5-F641C4EF401D}">
-  <dimension ref="B5:L33"/>
+  <dimension ref="B5:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="74">
+        <v>4</v>
+      </c>
+      <c r="D9" s="74">
+        <v>4</v>
+      </c>
+      <c r="E9" s="74">
+        <f>D9*C9</f>
+        <v>16</v>
+      </c>
+      <c r="F9" s="74">
+        <v>4</v>
+      </c>
+      <c r="G9" s="74">
+        <f>C9*F9</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="74">
+        <v>3</v>
+      </c>
+      <c r="I9" s="75">
+        <f>H9*C9</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="76">
+        <v>5</v>
+      </c>
+      <c r="D10" s="76">
+        <v>5</v>
+      </c>
+      <c r="E10" s="76">
+        <f>D10*C10</f>
+        <v>25</v>
+      </c>
+      <c r="F10" s="76">
+        <v>5</v>
+      </c>
+      <c r="G10" s="76">
+        <f>C10*F10</f>
+        <v>25</v>
+      </c>
+      <c r="H10" s="76">
+        <v>1</v>
+      </c>
+      <c r="I10" s="77">
+        <f>H10*C10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="76">
         <v>2</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="18">
-        <f>D10*C10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="18">
-        <f>C10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13">
-        <f>H10*C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="D11" s="76">
+        <v>2</v>
+      </c>
+      <c r="E11" s="76">
+        <f>D11*C11</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="76">
+        <v>4</v>
+      </c>
+      <c r="G11" s="76">
+        <f>C11*F11</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="76">
+        <v>5</v>
+      </c>
+      <c r="I11" s="77">
+        <f>H11*C11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18">
-        <f>D11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="18">
-        <f>C11*F11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13">
-        <f>H11*C11</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="18">
+      <c r="B12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="76">
+        <v>4</v>
+      </c>
+      <c r="D12" s="76">
+        <v>5</v>
+      </c>
+      <c r="E12" s="76">
         <f>D12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="18">
+        <v>20</v>
+      </c>
+      <c r="F12" s="76">
+        <v>3</v>
+      </c>
+      <c r="G12" s="76">
         <f>C12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13">
+        <v>12</v>
+      </c>
+      <c r="H12" s="76">
+        <v>3</v>
+      </c>
+      <c r="I12" s="77">
         <f>H12*C12</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
+      <c r="B13" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="78">
+        <v>3</v>
+      </c>
+      <c r="D13" s="76">
+        <v>5</v>
+      </c>
+      <c r="E13" s="76">
+        <f>D13*C13</f>
+        <v>15</v>
+      </c>
+      <c r="F13" s="76">
+        <v>3</v>
+      </c>
+      <c r="G13" s="76">
+        <f>C13*F13</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="76">
+        <v>3</v>
+      </c>
+      <c r="I13" s="77">
+        <f>H13*C13</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18">
-        <f>D15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="18">
-        <f>C15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13">
-        <f>H15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="20"/>
+      <c r="B14" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="78">
+        <v>5</v>
+      </c>
+      <c r="D14" s="78">
+        <v>3</v>
+      </c>
+      <c r="E14" s="76">
+        <f>D14*C14</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="78">
+        <v>3</v>
+      </c>
+      <c r="G14" s="76">
+        <f>C14*F14</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="78">
+        <v>5</v>
+      </c>
+      <c r="I14" s="77">
+        <f>H14*C14</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79">
+        <f>SUM(E9:E14)</f>
+        <v>95</v>
+      </c>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79">
+        <f>SUM(G9:G14)</f>
+        <v>85</v>
+      </c>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80">
+        <f>SUM(I9:I14)</f>
+        <v>73</v>
+      </c>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="18">
-        <f>D16*C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="18">
-        <f>C16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13">
-        <f>H16*C16</f>
-        <v>0</v>
-      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="18">
-        <f>D17*C17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="18">
-        <f>C17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13">
-        <f>H17*C17</f>
-        <v>0</v>
-      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="18">
-        <f t="shared" ref="E20:E26" si="0">D20*C20</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="18">
-        <f t="shared" ref="G20:G26" si="1">C20*F20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13">
-        <f t="shared" ref="I20:I26" si="2">H20*C20</f>
-        <v>0</v>
-      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="18">
-        <f>D29*C29</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="18">
-        <f>C29*F29</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13">
-        <f>H29*C29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="18">
-        <f t="shared" ref="E30:E31" si="3">D30*C30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="18">
-        <f t="shared" ref="G30:G31" si="4">C30*F30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13">
-        <f t="shared" ref="I30:I31" si="5">H30*C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15">
-        <f>SUM(E10:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15">
-        <f>SUM(G10:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16">
-        <f>SUM(I10:I32)</f>
-        <v>0</v>
-      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4177,21 +4196,741 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31616887-8AAA-4227-880D-55FC1D5B269C}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="64">
+        <v>5</v>
+      </c>
+      <c r="D7" s="64">
+        <v>4</v>
+      </c>
+      <c r="E7" s="64">
+        <f>D7*C7</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="64">
+        <v>2</v>
+      </c>
+      <c r="G7" s="65">
+        <f>C7*F7</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21">
+        <f>D8*C8</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <f>C8*F8</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4</v>
+      </c>
+      <c r="E9" s="21">
+        <f>D9*C9</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25">
+        <f>C9*F9</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
+        <f>D10*C10</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5</v>
+      </c>
+      <c r="G10" s="25">
+        <f>C10*F10</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="59">
+        <v>2</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21">
+        <f>D11*C11</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3</v>
+      </c>
+      <c r="G11" s="25">
+        <f>C11*F11</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="59">
+        <v>3</v>
+      </c>
+      <c r="D12" s="59">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21">
+        <f>D12*C12</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="59">
+        <v>5</v>
+      </c>
+      <c r="G12" s="25">
+        <f>C12*F12</f>
+        <v>15</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <f>SUM(E7:E12)</f>
+        <v>74</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
+        <f>SUM(G7:G12)</f>
+        <v>61</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867AE09F-6AF9-4DD6-9D16-A46F520EF2EE}">
+  <dimension ref="B3:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="74">
+        <v>5</v>
+      </c>
+      <c r="D7" s="74">
+        <v>4</v>
+      </c>
+      <c r="E7" s="74">
+        <f>D7*C7</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="74">
+        <v>2</v>
+      </c>
+      <c r="G7" s="75">
+        <f>C7*F7</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="76">
+        <v>3</v>
+      </c>
+      <c r="D8" s="76">
+        <v>3</v>
+      </c>
+      <c r="E8" s="76">
+        <f>D8*C8</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="76">
+        <v>2</v>
+      </c>
+      <c r="G8" s="77">
+        <f>C8*F8</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="76">
+        <v>3</v>
+      </c>
+      <c r="D9" s="76">
+        <v>3</v>
+      </c>
+      <c r="E9" s="76">
+        <f>D9*C9</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="76">
+        <v>4</v>
+      </c>
+      <c r="G9" s="77">
+        <f>C9*F9</f>
+        <v>12</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="76">
+        <v>2</v>
+      </c>
+      <c r="D10" s="76">
+        <v>5</v>
+      </c>
+      <c r="E10" s="76">
+        <f>D10*C10</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="76">
+        <v>2</v>
+      </c>
+      <c r="G10" s="77">
+        <f>C10*F10</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79">
+        <f ca="1">SUM(E7:E12)</f>
+        <v>48</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80">
+        <f ca="1">SUM(G7:G12)</f>
+        <v>32</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="72"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA65F3-E5E7-4F74-BCEC-7F7D1FEF753C}">
+  <dimension ref="C4:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="76">
+        <v>5</v>
+      </c>
+      <c r="E8" s="76">
+        <v>3</v>
+      </c>
+      <c r="F8" s="76">
+        <f>D8*E8</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="76">
+        <v>4</v>
+      </c>
+      <c r="H8" s="76">
+        <f>D8*G8</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="76">
+        <v>4</v>
+      </c>
+      <c r="J8" s="76">
+        <f>I8*D8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="76">
+        <v>5</v>
+      </c>
+      <c r="E9" s="76">
+        <v>5</v>
+      </c>
+      <c r="F9" s="76">
+        <f t="shared" ref="F9:F13" si="0">D9*E9</f>
+        <v>25</v>
+      </c>
+      <c r="G9" s="76">
+        <v>3</v>
+      </c>
+      <c r="H9" s="76">
+        <f t="shared" ref="H9:H13" si="1">D9*G9</f>
+        <v>15</v>
+      </c>
+      <c r="I9" s="76">
+        <v>2</v>
+      </c>
+      <c r="J9" s="76">
+        <f t="shared" ref="J9:J13" si="2">I9*D9</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="76">
+        <v>3</v>
+      </c>
+      <c r="E10" s="76">
+        <v>5</v>
+      </c>
+      <c r="F10" s="76">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="76">
+        <v>3</v>
+      </c>
+      <c r="H10" s="76">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I10" s="76">
+        <v>2</v>
+      </c>
+      <c r="J10" s="76">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="76">
+        <v>4</v>
+      </c>
+      <c r="E11" s="76">
+        <v>5</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="76">
+        <v>4</v>
+      </c>
+      <c r="H11" s="76">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I11" s="76">
+        <v>4</v>
+      </c>
+      <c r="J11" s="76">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="78">
+        <v>2</v>
+      </c>
+      <c r="E12" s="76">
+        <v>1</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="76">
+        <v>5</v>
+      </c>
+      <c r="H12" s="76">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="76">
+        <v>3</v>
+      </c>
+      <c r="J12" s="76">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="78">
+        <v>2</v>
+      </c>
+      <c r="E13" s="78">
+        <v>4</v>
+      </c>
+      <c r="F13" s="76">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="78">
+        <v>4</v>
+      </c>
+      <c r="H13" s="76">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1</v>
+      </c>
+      <c r="J13" s="76">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79">
+        <f>SUM(F8:F13)</f>
+        <v>85</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79">
+        <f>SUM(H8:H13)</f>
+        <v>78</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80">
+        <f>SUM(J8:J13)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4200,7 +4939,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF363A2BDE411C4BA7725D7F4DFA5D10" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b0a661350901121da497ecff65aa1b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b01810b4-46bc-4b16-bbb7-ff0231894c60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30665dda15a9972ce96fa4c18aeb19d4" ns2:_="">
     <xsd:import namespace="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
@@ -4358,23 +5097,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4382,7 +5111,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13736018-0FEB-4400-9C1B-17924D6E8770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4398,4 +5127,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A245001C-7F10-4133-B8AB-B496F61B0774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E2676-520D-4546-8F0D-FEF8360431A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="615" windowWidth="20340" windowHeight="13800" firstSheet="2" activeTab="6" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="30990" yWindow="615" windowWidth="21990" windowHeight="13800" firstSheet="3" activeTab="8" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Algorithmes" sheetId="8" r:id="rId2"/>
     <sheet name="choix solution" sheetId="2" r:id="rId3"/>
-    <sheet name="MCU" sheetId="7" r:id="rId4"/>
-    <sheet name="Platforme Robo" sheetId="10" r:id="rId5"/>
-    <sheet name="Manutention balle" sheetId="11" r:id="rId6"/>
-    <sheet name="interface de comm" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
+    <sheet name="MCU" sheetId="7" r:id="rId5"/>
+    <sheet name="Platforme Robo" sheetId="10" r:id="rId6"/>
+    <sheet name="Manutention balle" sheetId="11" r:id="rId7"/>
+    <sheet name="interface de comm" sheetId="12" r:id="rId8"/>
+    <sheet name="controller" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>solution</t>
   </si>
@@ -330,6 +332,27 @@
   </si>
   <si>
     <t>Pond.          (1 - 5)</t>
+  </si>
+  <si>
+    <t>Commande utilisateur</t>
+  </si>
+  <si>
+    <t>Compatibilité</t>
+  </si>
+  <si>
+    <t>Disponibilité</t>
+  </si>
+  <si>
+    <t>Xbox</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Prescision</t>
   </si>
 </sst>
 </file>
@@ -899,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,6 +964,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,56 +1081,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2437,38 +2466,38 @@
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
@@ -3093,12 +3122,12 @@
   <sheetData>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
@@ -3225,38 +3254,38 @@
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3292,27 +3321,27 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="73">
-        <v>5</v>
-      </c>
-      <c r="C8" s="73">
+      <c r="B8" s="46">
+        <v>5</v>
+      </c>
+      <c r="C8" s="46">
         <v>2</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="46">
         <f>$B8*$C8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="73">
-        <v>4</v>
-      </c>
-      <c r="F8" s="73">
+      <c r="E8" s="46">
+        <v>4</v>
+      </c>
+      <c r="F8" s="46">
         <f>B8*E8</f>
         <v>20</v>
       </c>
-      <c r="G8" s="73">
-        <v>5</v>
-      </c>
-      <c r="H8" s="73">
+      <c r="G8" s="46">
+        <v>5</v>
+      </c>
+      <c r="H8" s="46">
         <f>G8*B8</f>
         <v>25</v>
       </c>
@@ -3321,27 +3350,27 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73">
-        <v>4</v>
-      </c>
-      <c r="C9" s="73">
-        <v>5</v>
-      </c>
-      <c r="D9" s="73">
+      <c r="B9" s="46">
+        <v>4</v>
+      </c>
+      <c r="C9" s="46">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46">
         <f t="shared" ref="D9:D23" si="0">$B9*$C9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="73">
-        <v>3</v>
-      </c>
-      <c r="F9" s="73">
+      <c r="E9" s="46">
+        <v>3</v>
+      </c>
+      <c r="F9" s="46">
         <f t="shared" ref="F9:F23" si="1">B9*E9</f>
         <v>12</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="46">
         <v>1</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="46">
         <f t="shared" ref="H9:H23" si="2">G9*B9</f>
         <v>4</v>
       </c>
@@ -3350,27 +3379,27 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73">
-        <v>4</v>
-      </c>
-      <c r="C10" s="73">
-        <v>5</v>
-      </c>
-      <c r="D10" s="73">
+      <c r="B10" s="46">
+        <v>4</v>
+      </c>
+      <c r="C10" s="46">
+        <v>5</v>
+      </c>
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E10" s="73">
-        <v>5</v>
-      </c>
-      <c r="F10" s="73">
+      <c r="E10" s="46">
+        <v>5</v>
+      </c>
+      <c r="F10" s="46">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="46">
         <v>1</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="46">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3379,27 +3408,27 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="73">
-        <v>3</v>
-      </c>
-      <c r="C11" s="73">
+      <c r="B11" s="46">
+        <v>3</v>
+      </c>
+      <c r="C11" s="46">
         <v>1</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="73">
-        <v>5</v>
-      </c>
-      <c r="F11" s="73">
+      <c r="E11" s="46">
+        <v>5</v>
+      </c>
+      <c r="F11" s="46">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11" s="73">
-        <v>5</v>
-      </c>
-      <c r="H11" s="73">
+      <c r="G11" s="46">
+        <v>5</v>
+      </c>
+      <c r="H11" s="46">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3408,27 +3437,27 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="46">
         <v>2</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="46">
         <v>2</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="73">
-        <v>5</v>
-      </c>
-      <c r="F12" s="73">
+      <c r="E12" s="46">
+        <v>5</v>
+      </c>
+      <c r="F12" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G12" s="73">
-        <v>5</v>
-      </c>
-      <c r="H12" s="73">
+      <c r="G12" s="46">
+        <v>5</v>
+      </c>
+      <c r="H12" s="46">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3437,27 +3466,27 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="46">
         <v>2</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="46">
         <v>2</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="73">
-        <v>5</v>
-      </c>
-      <c r="F13" s="73">
+      <c r="E13" s="46">
+        <v>5</v>
+      </c>
+      <c r="F13" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G13" s="73">
-        <v>5</v>
-      </c>
-      <c r="H13" s="73">
+      <c r="G13" s="46">
+        <v>5</v>
+      </c>
+      <c r="H13" s="46">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3466,27 +3495,27 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="73">
-        <v>3</v>
-      </c>
-      <c r="C14" s="73">
-        <v>3</v>
-      </c>
-      <c r="D14" s="73">
+      <c r="B14" s="46">
+        <v>3</v>
+      </c>
+      <c r="C14" s="46">
+        <v>3</v>
+      </c>
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="46">
         <v>2</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14" s="73">
-        <v>5</v>
-      </c>
-      <c r="H14" s="73">
+      <c r="G14" s="46">
+        <v>5</v>
+      </c>
+      <c r="H14" s="46">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3495,27 +3524,27 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="46">
         <v>2</v>
       </c>
-      <c r="C15" s="73">
-        <v>5</v>
-      </c>
-      <c r="D15" s="73">
+      <c r="C15" s="46">
+        <v>5</v>
+      </c>
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15" s="73">
-        <v>5</v>
-      </c>
-      <c r="F15" s="73">
+      <c r="E15" s="46">
+        <v>5</v>
+      </c>
+      <c r="F15" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G15" s="73">
-        <v>3</v>
-      </c>
-      <c r="H15" s="73">
+      <c r="G15" s="46">
+        <v>3</v>
+      </c>
+      <c r="H15" s="46">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -3524,27 +3553,27 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="73">
-        <v>4</v>
-      </c>
-      <c r="C16" s="73">
+      <c r="B16" s="46">
+        <v>4</v>
+      </c>
+      <c r="C16" s="46">
         <v>2</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="73">
-        <v>4</v>
-      </c>
-      <c r="F16" s="73">
+      <c r="E16" s="46">
+        <v>4</v>
+      </c>
+      <c r="F16" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G16" s="73">
-        <v>5</v>
-      </c>
-      <c r="H16" s="73">
+      <c r="G16" s="46">
+        <v>5</v>
+      </c>
+      <c r="H16" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -3553,27 +3582,27 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="73">
-        <v>5</v>
-      </c>
-      <c r="C17" s="73">
-        <v>5</v>
-      </c>
-      <c r="D17" s="73">
+      <c r="B17" s="46">
+        <v>5</v>
+      </c>
+      <c r="C17" s="46">
+        <v>5</v>
+      </c>
+      <c r="D17" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E17" s="73">
-        <v>4</v>
-      </c>
-      <c r="F17" s="73">
+      <c r="E17" s="46">
+        <v>4</v>
+      </c>
+      <c r="F17" s="46">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G17" s="73">
-        <v>4</v>
-      </c>
-      <c r="H17" s="73">
+      <c r="G17" s="46">
+        <v>4</v>
+      </c>
+      <c r="H17" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -3582,27 +3611,27 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="73">
-        <v>4</v>
-      </c>
-      <c r="C18" s="73">
-        <v>5</v>
-      </c>
-      <c r="D18" s="73">
+      <c r="B18" s="46">
+        <v>4</v>
+      </c>
+      <c r="C18" s="46">
+        <v>5</v>
+      </c>
+      <c r="D18" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E18" s="73">
-        <v>3</v>
-      </c>
-      <c r="F18" s="73">
+      <c r="E18" s="46">
+        <v>3</v>
+      </c>
+      <c r="F18" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G18" s="73">
-        <v>3</v>
-      </c>
-      <c r="H18" s="73">
+      <c r="G18" s="46">
+        <v>3</v>
+      </c>
+      <c r="H18" s="46">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -3611,27 +3640,27 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="73">
-        <v>5</v>
-      </c>
-      <c r="C19" s="73">
-        <v>5</v>
-      </c>
-      <c r="D19" s="73">
+      <c r="B19" s="46">
+        <v>5</v>
+      </c>
+      <c r="C19" s="46">
+        <v>5</v>
+      </c>
+      <c r="D19" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E19" s="73">
-        <v>4</v>
-      </c>
-      <c r="F19" s="73">
+      <c r="E19" s="46">
+        <v>4</v>
+      </c>
+      <c r="F19" s="46">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G19" s="73">
-        <v>3</v>
-      </c>
-      <c r="H19" s="73">
+      <c r="G19" s="46">
+        <v>3</v>
+      </c>
+      <c r="H19" s="46">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3640,27 +3669,27 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="73">
-        <v>4</v>
-      </c>
-      <c r="C20" s="73">
-        <v>5</v>
-      </c>
-      <c r="D20" s="73">
+      <c r="B20" s="46">
+        <v>4</v>
+      </c>
+      <c r="C20" s="46">
+        <v>5</v>
+      </c>
+      <c r="D20" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E20" s="73">
-        <v>3</v>
-      </c>
-      <c r="F20" s="73">
+      <c r="E20" s="46">
+        <v>3</v>
+      </c>
+      <c r="F20" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="46">
         <v>2</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="46">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -3669,27 +3698,27 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="73">
-        <v>5</v>
-      </c>
-      <c r="C21" s="73">
-        <v>3</v>
-      </c>
-      <c r="D21" s="73">
+      <c r="B21" s="46">
+        <v>5</v>
+      </c>
+      <c r="C21" s="46">
+        <v>3</v>
+      </c>
+      <c r="D21" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E21" s="73">
-        <v>5</v>
-      </c>
-      <c r="F21" s="73">
+      <c r="E21" s="46">
+        <v>5</v>
+      </c>
+      <c r="F21" s="46">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G21" s="73">
-        <v>5</v>
-      </c>
-      <c r="H21" s="73">
+      <c r="G21" s="46">
+        <v>5</v>
+      </c>
+      <c r="H21" s="46">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3698,27 +3727,27 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="73">
-        <v>5</v>
-      </c>
-      <c r="C22" s="73">
-        <v>4</v>
-      </c>
-      <c r="D22" s="73">
+      <c r="B22" s="46">
+        <v>5</v>
+      </c>
+      <c r="C22" s="46">
+        <v>4</v>
+      </c>
+      <c r="D22" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E22" s="73">
-        <v>4</v>
-      </c>
-      <c r="F22" s="73">
+      <c r="E22" s="46">
+        <v>4</v>
+      </c>
+      <c r="F22" s="46">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G22" s="73">
-        <v>5</v>
-      </c>
-      <c r="H22" s="73">
+      <c r="G22" s="46">
+        <v>5</v>
+      </c>
+      <c r="H22" s="46">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3727,48 +3756,48 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="73">
-        <v>4</v>
-      </c>
-      <c r="C23" s="73">
-        <v>3</v>
-      </c>
-      <c r="D23" s="73">
+      <c r="B23" s="46">
+        <v>4</v>
+      </c>
+      <c r="C23" s="46">
+        <v>3</v>
+      </c>
+      <c r="D23" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E23" s="73">
-        <v>4</v>
-      </c>
-      <c r="F23" s="73">
+      <c r="E23" s="46">
+        <v>4</v>
+      </c>
+      <c r="F23" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G23" s="73">
-        <v>4</v>
-      </c>
-      <c r="H23" s="73">
+      <c r="G23" s="46">
+        <v>4</v>
+      </c>
+      <c r="H23" s="46">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3806,6 +3835,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C3CC1A-D22E-4748-8017-7F8933EADD0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3598D9CD-A055-4E1F-8AB5-F641C4EF401D}">
   <dimension ref="B5:L27"/>
   <sheetViews>
@@ -3823,38 +3864,38 @@
     <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="32" t="s">
         <v>3</v>
       </c>
@@ -3870,36 +3911,36 @@
       <c r="H8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="74">
-        <v>4</v>
-      </c>
-      <c r="D9" s="74">
-        <v>4</v>
-      </c>
-      <c r="E9" s="74">
-        <f>D9*C9</f>
+      <c r="C9" s="47">
+        <v>4</v>
+      </c>
+      <c r="D9" s="47">
+        <v>4</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" ref="E9:E14" si="0">D9*C9</f>
         <v>16</v>
       </c>
-      <c r="F9" s="74">
-        <v>4</v>
-      </c>
-      <c r="G9" s="74">
-        <f>C9*F9</f>
+      <c r="F9" s="47">
+        <v>4</v>
+      </c>
+      <c r="G9" s="47">
+        <f t="shared" ref="G9:G14" si="1">C9*F9</f>
         <v>16</v>
       </c>
-      <c r="H9" s="74">
-        <v>3</v>
-      </c>
-      <c r="I9" s="75">
-        <f>H9*C9</f>
+      <c r="H9" s="47">
+        <v>3</v>
+      </c>
+      <c r="I9" s="48">
+        <f t="shared" ref="I9:I14" si="2">H9*C9</f>
         <v>12</v>
       </c>
     </row>
@@ -3907,28 +3948,28 @@
       <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="76">
-        <v>5</v>
-      </c>
-      <c r="D10" s="76">
-        <v>5</v>
-      </c>
-      <c r="E10" s="76">
-        <f>D10*C10</f>
+      <c r="C10" s="49">
+        <v>5</v>
+      </c>
+      <c r="D10" s="49">
+        <v>5</v>
+      </c>
+      <c r="E10" s="49">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F10" s="76">
-        <v>5</v>
-      </c>
-      <c r="G10" s="76">
-        <f>C10*F10</f>
+      <c r="F10" s="49">
+        <v>5</v>
+      </c>
+      <c r="G10" s="49">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="49">
         <v>1</v>
       </c>
-      <c r="I10" s="77">
-        <f>H10*C10</f>
+      <c r="I10" s="50">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -3936,28 +3977,28 @@
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="49">
         <v>2</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="49">
         <v>2</v>
       </c>
-      <c r="E11" s="76">
-        <f>D11*C11</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="76">
-        <v>4</v>
-      </c>
-      <c r="G11" s="76">
-        <f>C11*F11</f>
+      <c r="E11" s="49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="49">
+        <v>4</v>
+      </c>
+      <c r="G11" s="49">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H11" s="76">
-        <v>5</v>
-      </c>
-      <c r="I11" s="77">
-        <f>H11*C11</f>
+      <c r="H11" s="49">
+        <v>5</v>
+      </c>
+      <c r="I11" s="50">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -3965,86 +4006,86 @@
       <c r="B12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="76">
-        <v>4</v>
-      </c>
-      <c r="D12" s="76">
-        <v>5</v>
-      </c>
-      <c r="E12" s="76">
-        <f>D12*C12</f>
+      <c r="C12" s="49">
+        <v>4</v>
+      </c>
+      <c r="D12" s="49">
+        <v>5</v>
+      </c>
+      <c r="E12" s="49">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F12" s="76">
-        <v>3</v>
-      </c>
-      <c r="G12" s="76">
-        <f>C12*F12</f>
+      <c r="F12" s="49">
+        <v>3</v>
+      </c>
+      <c r="G12" s="49">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H12" s="76">
-        <v>3</v>
-      </c>
-      <c r="I12" s="77">
-        <f>H12*C12</f>
+      <c r="H12" s="49">
+        <v>3</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="78">
-        <v>3</v>
-      </c>
-      <c r="D13" s="76">
-        <v>5</v>
-      </c>
-      <c r="E13" s="76">
-        <f>D13*C13</f>
+      <c r="C13" s="51">
+        <v>3</v>
+      </c>
+      <c r="D13" s="49">
+        <v>5</v>
+      </c>
+      <c r="E13" s="49">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F13" s="76">
-        <v>3</v>
-      </c>
-      <c r="G13" s="76">
-        <f>C13*F13</f>
+      <c r="F13" s="49">
+        <v>3</v>
+      </c>
+      <c r="G13" s="49">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H13" s="76">
-        <v>3</v>
-      </c>
-      <c r="I13" s="77">
-        <f>H13*C13</f>
+      <c r="H13" s="49">
+        <v>3</v>
+      </c>
+      <c r="I13" s="50">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="78">
-        <v>5</v>
-      </c>
-      <c r="D14" s="78">
-        <v>3</v>
-      </c>
-      <c r="E14" s="76">
-        <f>D14*C14</f>
+      <c r="C14" s="51">
+        <v>5</v>
+      </c>
+      <c r="D14" s="51">
+        <v>3</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F14" s="78">
-        <v>3</v>
-      </c>
-      <c r="G14" s="76">
-        <f>C14*F14</f>
+      <c r="F14" s="51">
+        <v>3</v>
+      </c>
+      <c r="G14" s="49">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H14" s="78">
-        <v>5</v>
-      </c>
-      <c r="I14" s="77">
-        <f>H14*C14</f>
+      <c r="H14" s="51">
+        <v>5</v>
+      </c>
+      <c r="I14" s="50">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -4052,143 +4093,143 @@
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52">
         <f>SUM(E9:E14)</f>
         <v>95</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79">
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
         <f>SUM(G9:G14)</f>
         <v>85</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80">
+      <c r="H15" s="52"/>
+      <c r="I15" s="53">
         <f>SUM(I9:I14)</f>
         <v>73</v>
       </c>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4205,7 +4246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31616887-8AAA-4227-880D-55FC1D5B269C}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -4228,37 +4269,37 @@
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
@@ -4268,35 +4309,35 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="64">
-        <v>5</v>
-      </c>
-      <c r="D7" s="64">
-        <v>4</v>
-      </c>
-      <c r="E7" s="64">
-        <f>D7*C7</f>
+      <c r="C7" s="39">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39">
+        <v>4</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" ref="E7:E12" si="0">D7*C7</f>
         <v>20</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="39">
         <v>2</v>
       </c>
-      <c r="G7" s="65">
-        <f>C7*F7</f>
+      <c r="G7" s="40">
+        <f t="shared" ref="G7:G12" si="1">C7*F7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
@@ -4309,18 +4350,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="21">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8" s="21">
         <v>1</v>
       </c>
       <c r="G8" s="25">
-        <f>C8*F8</f>
-        <v>4</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
@@ -4333,18 +4374,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="21">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F9" s="21">
         <v>2</v>
       </c>
       <c r="G9" s="25">
-        <f>C9*F9</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
@@ -4357,66 +4398,66 @@
         <v>2</v>
       </c>
       <c r="E10" s="21">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F10" s="21">
         <v>5</v>
       </c>
       <c r="G10" s="25">
-        <f>C10*F10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="36">
         <v>2</v>
       </c>
       <c r="D11" s="21">
         <v>4</v>
       </c>
       <c r="E11" s="21">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F11" s="21">
         <v>3</v>
       </c>
       <c r="G11" s="25">
-        <f>C11*F11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="59">
-        <v>3</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="C12" s="36">
+        <v>3</v>
+      </c>
+      <c r="D12" s="36">
         <v>2</v>
       </c>
       <c r="E12" s="21">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="36">
         <v>5</v>
       </c>
       <c r="G12" s="25">
-        <f>C12*F12</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -4433,23 +4474,23 @@
         <f>SUM(G7:G12)</f>
         <v>61</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867AE09F-6AF9-4DD6-9D16-A46F520EF2EE}">
   <dimension ref="B3:I13"/>
   <sheetViews>
@@ -4466,37 +4507,37 @@
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
@@ -4506,159 +4547,159 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="74">
-        <v>5</v>
-      </c>
-      <c r="D7" s="74">
-        <v>4</v>
-      </c>
-      <c r="E7" s="74">
+      <c r="C7" s="47">
+        <v>5</v>
+      </c>
+      <c r="D7" s="47">
+        <v>4</v>
+      </c>
+      <c r="E7" s="47">
         <f>D7*C7</f>
         <v>20</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="47">
         <v>2</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="48">
         <f>C7*F7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="76">
-        <v>3</v>
-      </c>
-      <c r="D8" s="76">
-        <v>3</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="C8" s="49">
+        <v>3</v>
+      </c>
+      <c r="D8" s="49">
+        <v>3</v>
+      </c>
+      <c r="E8" s="49">
         <f>D8*C8</f>
         <v>9</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="49">
         <v>2</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="50">
         <f>C8*F8</f>
         <v>6</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="76">
-        <v>3</v>
-      </c>
-      <c r="D9" s="76">
-        <v>3</v>
-      </c>
-      <c r="E9" s="76">
+      <c r="C9" s="49">
+        <v>3</v>
+      </c>
+      <c r="D9" s="49">
+        <v>3</v>
+      </c>
+      <c r="E9" s="49">
         <f>D9*C9</f>
         <v>9</v>
       </c>
-      <c r="F9" s="76">
-        <v>4</v>
-      </c>
-      <c r="G9" s="77">
+      <c r="F9" s="49">
+        <v>4</v>
+      </c>
+      <c r="G9" s="50">
         <f>C9*F9</f>
         <v>12</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="49">
         <v>2</v>
       </c>
-      <c r="D10" s="76">
-        <v>5</v>
-      </c>
-      <c r="E10" s="76">
+      <c r="D10" s="49">
+        <v>5</v>
+      </c>
+      <c r="E10" s="49">
         <f>D10*C10</f>
         <v>10</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="49">
         <v>2</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="50">
         <f>C10*F10</f>
         <v>4</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52">
         <f ca="1">SUM(E7:E12)</f>
         <v>48</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80">
+      <c r="F11" s="52"/>
+      <c r="G11" s="53">
         <f ca="1">SUM(G7:G12)</f>
         <v>32</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="58"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA65F3-E5E7-4F74-BCEC-7F7D1FEF753C}">
   <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4671,38 +4712,38 @@
     <row r="5" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="72"/>
+      <c r="I6" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="32" t="s">
         <v>3</v>
       </c>
@@ -4718,35 +4759,35 @@
       <c r="I7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="76">
-        <v>5</v>
-      </c>
-      <c r="E8" s="76">
-        <v>3</v>
-      </c>
-      <c r="F8" s="76">
+      <c r="D8" s="49">
+        <v>5</v>
+      </c>
+      <c r="E8" s="49">
+        <v>3</v>
+      </c>
+      <c r="F8" s="49">
         <f>D8*E8</f>
         <v>15</v>
       </c>
-      <c r="G8" s="76">
-        <v>4</v>
-      </c>
-      <c r="H8" s="76">
+      <c r="G8" s="49">
+        <v>4</v>
+      </c>
+      <c r="H8" s="49">
         <f>D8*G8</f>
         <v>20</v>
       </c>
-      <c r="I8" s="76">
-        <v>4</v>
-      </c>
-      <c r="J8" s="76">
+      <c r="I8" s="49">
+        <v>4</v>
+      </c>
+      <c r="J8" s="49">
         <f>I8*D8</f>
         <v>20</v>
       </c>
@@ -4755,27 +4796,27 @@
       <c r="C9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="76">
-        <v>5</v>
-      </c>
-      <c r="E9" s="76">
-        <v>5</v>
-      </c>
-      <c r="F9" s="76">
+      <c r="D9" s="49">
+        <v>5</v>
+      </c>
+      <c r="E9" s="49">
+        <v>5</v>
+      </c>
+      <c r="F9" s="49">
         <f t="shared" ref="F9:F13" si="0">D9*E9</f>
         <v>25</v>
       </c>
-      <c r="G9" s="76">
-        <v>3</v>
-      </c>
-      <c r="H9" s="76">
+      <c r="G9" s="49">
+        <v>3</v>
+      </c>
+      <c r="H9" s="49">
         <f t="shared" ref="H9:H13" si="1">D9*G9</f>
         <v>15</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="49">
         <v>2</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="49">
         <f t="shared" ref="J9:J13" si="2">I9*D9</f>
         <v>10</v>
       </c>
@@ -4784,27 +4825,27 @@
       <c r="C10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="76">
-        <v>3</v>
-      </c>
-      <c r="E10" s="76">
-        <v>5</v>
-      </c>
-      <c r="F10" s="76">
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49">
+        <v>5</v>
+      </c>
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G10" s="76">
-        <v>3</v>
-      </c>
-      <c r="H10" s="76">
+      <c r="G10" s="49">
+        <v>3</v>
+      </c>
+      <c r="H10" s="49">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="49">
         <v>2</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="49">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -4813,85 +4854,85 @@
       <c r="C11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="76">
-        <v>4</v>
-      </c>
-      <c r="E11" s="76">
-        <v>5</v>
-      </c>
-      <c r="F11" s="76">
+      <c r="D11" s="49">
+        <v>4</v>
+      </c>
+      <c r="E11" s="49">
+        <v>5</v>
+      </c>
+      <c r="F11" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G11" s="76">
-        <v>4</v>
-      </c>
-      <c r="H11" s="76">
+      <c r="G11" s="49">
+        <v>4</v>
+      </c>
+      <c r="H11" s="49">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I11" s="76">
-        <v>4</v>
-      </c>
-      <c r="J11" s="76">
+      <c r="I11" s="49">
+        <v>4</v>
+      </c>
+      <c r="J11" s="49">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="51">
         <v>2</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="49">
         <v>1</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="76">
-        <v>5</v>
-      </c>
-      <c r="H12" s="76">
+      <c r="G12" s="49">
+        <v>5</v>
+      </c>
+      <c r="H12" s="49">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="76">
-        <v>3</v>
-      </c>
-      <c r="J12" s="76">
+      <c r="I12" s="49">
+        <v>3</v>
+      </c>
+      <c r="J12" s="49">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="51">
         <v>2</v>
       </c>
-      <c r="E13" s="78">
-        <v>4</v>
-      </c>
-      <c r="F13" s="76">
+      <c r="E13" s="51">
+        <v>4</v>
+      </c>
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13" s="78">
-        <v>4</v>
-      </c>
-      <c r="H13" s="76">
+      <c r="G13" s="51">
+        <v>4</v>
+      </c>
+      <c r="H13" s="49">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="49">
         <v>1</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="49">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4900,19 +4941,19 @@
       <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52">
         <f>SUM(F8:F13)</f>
         <v>85</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52">
         <f>SUM(H8:H13)</f>
         <v>78</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80">
+      <c r="I14" s="52"/>
+      <c r="J14" s="53">
         <f>SUM(J8:J13)</f>
         <v>60</v>
       </c>
@@ -4930,6 +4971,344 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFD1C8B-25EE-43F3-99D8-9C440948B03D}">
+  <dimension ref="C3:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5"/>
+      <c r="D4" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="74"/>
+      <c r="K5" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="82"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="49">
+        <v>5</v>
+      </c>
+      <c r="E7" s="49">
+        <v>3</v>
+      </c>
+      <c r="F7" s="49">
+        <f>D7*E7</f>
+        <v>15</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3</v>
+      </c>
+      <c r="H7" s="49">
+        <f>D7*G7</f>
+        <v>15</v>
+      </c>
+      <c r="I7" s="49">
+        <v>4</v>
+      </c>
+      <c r="J7" s="49">
+        <f>I7*D7</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="49">
+        <v>2</v>
+      </c>
+      <c r="L7" s="50">
+        <f>K7*D7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="49">
+        <v>5</v>
+      </c>
+      <c r="E8" s="49">
+        <v>3</v>
+      </c>
+      <c r="F8" s="49">
+        <f t="shared" ref="F8:F12" si="0">D8*E8</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="49">
+        <v>4</v>
+      </c>
+      <c r="H8" s="49">
+        <f t="shared" ref="H8:H12" si="1">D8*G8</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="49">
+        <v>5</v>
+      </c>
+      <c r="J8" s="49">
+        <f t="shared" ref="J8:J12" si="2">I8*D8</f>
+        <v>25</v>
+      </c>
+      <c r="K8" s="49">
+        <v>2</v>
+      </c>
+      <c r="L8" s="50">
+        <f t="shared" ref="L8:L12" si="3">K8*D8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="49">
+        <v>4</v>
+      </c>
+      <c r="E9" s="49">
+        <v>5</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="49">
+        <v>5</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="49">
+        <v>5</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K9" s="49">
+        <v>0</v>
+      </c>
+      <c r="L9" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49">
+        <v>4</v>
+      </c>
+      <c r="F10" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="49">
+        <v>3</v>
+      </c>
+      <c r="H10" s="49">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I10" s="49">
+        <v>5</v>
+      </c>
+      <c r="J10" s="49">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K10" s="49">
+        <v>2</v>
+      </c>
+      <c r="L10" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="51">
+        <v>2</v>
+      </c>
+      <c r="E11" s="49">
+        <v>5</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="49">
+        <v>5</v>
+      </c>
+      <c r="H11" s="49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="49">
+        <v>5</v>
+      </c>
+      <c r="J11" s="49">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="49">
+        <v>4</v>
+      </c>
+      <c r="L11" s="50">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="51">
+        <v>3</v>
+      </c>
+      <c r="E12" s="51">
+        <v>4</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="51">
+        <v>4</v>
+      </c>
+      <c r="H12" s="49">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I12" s="49">
+        <v>4</v>
+      </c>
+      <c r="J12" s="49">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K12" s="49">
+        <v>4</v>
+      </c>
+      <c r="L12" s="50">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52">
+        <f>SUM(F7:F12)</f>
+        <v>84</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52">
+        <f>SUM(H7:H12)</f>
+        <v>86</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52">
+        <f>SUM(J7:J12)</f>
+        <v>102</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53">
+        <f>SUM(L7:L12)</f>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4940,6 +5319,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF363A2BDE411C4BA7725D7F4DFA5D10" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b0a661350901121da497ecff65aa1b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b01810b4-46bc-4b16-bbb7-ff0231894c60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30665dda15a9972ce96fa4c18aeb19d4" ns2:_="">
     <xsd:import namespace="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
@@ -5097,12 +5482,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
   <ds:schemaRefs>
@@ -5112,6 +5491,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13736018-0FEB-4400-9C1B-17924D6E8770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5127,20 +5522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E2676-520D-4546-8F0D-FEF8360431A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B8E41-E53E-4BD0-A118-CCA4924C6279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="615" windowWidth="21990" windowHeight="13800" firstSheet="3" activeTab="8" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="29820" yWindow="645" windowWidth="21990" windowHeight="13800" activeTab="1" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Algorithmes" sheetId="8" r:id="rId2"/>
     <sheet name="choix solution" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
-    <sheet name="MCU" sheetId="7" r:id="rId5"/>
-    <sheet name="Platforme Robo" sheetId="10" r:id="rId6"/>
-    <sheet name="Manutention balle" sheetId="11" r:id="rId7"/>
-    <sheet name="interface de comm" sheetId="12" r:id="rId8"/>
-    <sheet name="controller" sheetId="14" r:id="rId9"/>
+    <sheet name="MCU" sheetId="7" r:id="rId4"/>
+    <sheet name="Platforme Robo" sheetId="10" r:id="rId5"/>
+    <sheet name="Manutention balle" sheetId="11" r:id="rId6"/>
+    <sheet name="interface de comm" sheetId="12" r:id="rId7"/>
+    <sheet name="controller" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3109,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8408087-1FBF-4D6E-9526-BA7B3CA9693E}">
   <dimension ref="B6:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:E11"/>
     </sheetView>
   </sheetViews>
@@ -3835,18 +3834,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C3CC1A-D22E-4748-8017-7F8933EADD0E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3598D9CD-A055-4E1F-8AB5-F641C4EF401D}">
   <dimension ref="B5:L27"/>
   <sheetViews>
@@ -4246,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31616887-8AAA-4227-880D-55FC1D5B269C}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -4479,18 +4466,18 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867AE09F-6AF9-4DD6-9D16-A46F520EF2EE}">
   <dimension ref="B3:I13"/>
   <sheetViews>
@@ -4683,18 +4670,18 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA65F3-E5E7-4F74-BCEC-7F7D1FEF753C}">
   <dimension ref="C4:J14"/>
   <sheetViews>
@@ -4971,11 +4958,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFD1C8B-25EE-43F3-99D8-9C440948B03D}">
   <dimension ref="C3:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5310,21 +5297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF363A2BDE411C4BA7725D7F4DFA5D10" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b0a661350901121da497ecff65aa1b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b01810b4-46bc-4b16-bbb7-ff0231894c60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30665dda15a9972ce96fa4c18aeb19d4" ns2:_="">
     <xsd:import namespace="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
@@ -5482,10 +5454,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13736018-0FEB-4400-9C1B-17924D6E8770}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5507,19 +5504,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13736018-0FEB-4400-9C1B-17924D6E8770}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gestion/Estimations/matrice-de-descision-1.xlsx
+++ b/Gestion/Estimations/matrice-de-descision-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A245001C-7F10-4133-B8AB-B496F61B0774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F3ECC-C64D-469C-80FE-01EA5233480B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="615" windowWidth="20340" windowHeight="13800" firstSheet="2" activeTab="6" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DCA747CD-7DC4-46D1-993D-905F0F3B32BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -943,6 +943,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,56 +1055,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1351,7 +1351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456382752"/>
@@ -1410,7 +1410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1033142816"/>
@@ -1452,7 +1452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1489,7 +1489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2418,8 +2418,8 @@
   </sheetPr>
   <dimension ref="B6:I35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,38 +2437,38 @@
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
@@ -3093,12 +3093,12 @@
   <sheetData>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
@@ -3225,38 +3225,38 @@
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3292,27 +3292,27 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="73">
-        <v>5</v>
-      </c>
-      <c r="C8" s="73">
+      <c r="B8" s="45">
+        <v>5</v>
+      </c>
+      <c r="C8" s="45">
         <v>2</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="45">
         <f>$B8*$C8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="73">
-        <v>4</v>
-      </c>
-      <c r="F8" s="73">
+      <c r="E8" s="45">
+        <v>4</v>
+      </c>
+      <c r="F8" s="45">
         <f>B8*E8</f>
         <v>20</v>
       </c>
-      <c r="G8" s="73">
-        <v>5</v>
-      </c>
-      <c r="H8" s="73">
+      <c r="G8" s="45">
+        <v>5</v>
+      </c>
+      <c r="H8" s="45">
         <f>G8*B8</f>
         <v>25</v>
       </c>
@@ -3321,27 +3321,27 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73">
-        <v>4</v>
-      </c>
-      <c r="C9" s="73">
-        <v>5</v>
-      </c>
-      <c r="D9" s="73">
+      <c r="B9" s="45">
+        <v>4</v>
+      </c>
+      <c r="C9" s="45">
+        <v>5</v>
+      </c>
+      <c r="D9" s="45">
         <f t="shared" ref="D9:D23" si="0">$B9*$C9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="73">
-        <v>3</v>
-      </c>
-      <c r="F9" s="73">
+      <c r="E9" s="45">
+        <v>3</v>
+      </c>
+      <c r="F9" s="45">
         <f t="shared" ref="F9:F23" si="1">B9*E9</f>
         <v>12</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="45">
         <v>1</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="45">
         <f t="shared" ref="H9:H23" si="2">G9*B9</f>
         <v>4</v>
       </c>
@@ -3350,27 +3350,27 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73">
-        <v>4</v>
-      </c>
-      <c r="C10" s="73">
-        <v>5</v>
-      </c>
-      <c r="D10" s="73">
+      <c r="B10" s="45">
+        <v>4</v>
+      </c>
+      <c r="C10" s="45">
+        <v>5</v>
+      </c>
+      <c r="D10" s="45">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E10" s="73">
-        <v>5</v>
-      </c>
-      <c r="F10" s="73">
+      <c r="E10" s="45">
+        <v>5</v>
+      </c>
+      <c r="F10" s="45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="45">
         <v>1</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -3379,27 +3379,27 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="73">
-        <v>3</v>
-      </c>
-      <c r="C11" s="73">
+      <c r="B11" s="45">
+        <v>3</v>
+      </c>
+      <c r="C11" s="45">
         <v>1</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="73">
-        <v>5</v>
-      </c>
-      <c r="F11" s="73">
+      <c r="E11" s="45">
+        <v>5</v>
+      </c>
+      <c r="F11" s="45">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11" s="73">
-        <v>5</v>
-      </c>
-      <c r="H11" s="73">
+      <c r="G11" s="45">
+        <v>5</v>
+      </c>
+      <c r="H11" s="45">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3408,27 +3408,27 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="45">
         <v>2</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="45">
         <v>2</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="73">
-        <v>5</v>
-      </c>
-      <c r="F12" s="73">
+      <c r="E12" s="45">
+        <v>5</v>
+      </c>
+      <c r="F12" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G12" s="73">
-        <v>5</v>
-      </c>
-      <c r="H12" s="73">
+      <c r="G12" s="45">
+        <v>5</v>
+      </c>
+      <c r="H12" s="45">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3437,27 +3437,27 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="45">
         <v>2</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="73">
-        <v>5</v>
-      </c>
-      <c r="F13" s="73">
+      <c r="E13" s="45">
+        <v>5</v>
+      </c>
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G13" s="73">
-        <v>5</v>
-      </c>
-      <c r="H13" s="73">
+      <c r="G13" s="45">
+        <v>5</v>
+      </c>
+      <c r="H13" s="45">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3466,27 +3466,27 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="73">
-        <v>3</v>
-      </c>
-      <c r="C14" s="73">
-        <v>3</v>
-      </c>
-      <c r="D14" s="73">
+      <c r="B14" s="45">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45">
+        <v>3</v>
+      </c>
+      <c r="D14" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="45">
         <v>2</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14" s="73">
-        <v>5</v>
-      </c>
-      <c r="H14" s="73">
+      <c r="G14" s="45">
+        <v>5</v>
+      </c>
+      <c r="H14" s="45">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3495,27 +3495,27 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="45">
         <v>2</v>
       </c>
-      <c r="C15" s="73">
-        <v>5</v>
-      </c>
-      <c r="D15" s="73">
+      <c r="C15" s="45">
+        <v>5</v>
+      </c>
+      <c r="D15" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15" s="73">
-        <v>5</v>
-      </c>
-      <c r="F15" s="73">
+      <c r="E15" s="45">
+        <v>5</v>
+      </c>
+      <c r="F15" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G15" s="73">
-        <v>3</v>
-      </c>
-      <c r="H15" s="73">
+      <c r="G15" s="45">
+        <v>3</v>
+      </c>
+      <c r="H15" s="45">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -3524,27 +3524,27 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="73">
-        <v>4</v>
-      </c>
-      <c r="C16" s="73">
+      <c r="B16" s="45">
+        <v>4</v>
+      </c>
+      <c r="C16" s="45">
         <v>2</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="45">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="73">
-        <v>4</v>
-      </c>
-      <c r="F16" s="73">
+      <c r="E16" s="45">
+        <v>4</v>
+      </c>
+      <c r="F16" s="45">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G16" s="73">
-        <v>5</v>
-      </c>
-      <c r="H16" s="73">
+      <c r="G16" s="45">
+        <v>5</v>
+      </c>
+      <c r="H16" s="45">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -3553,27 +3553,27 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="73">
-        <v>5</v>
-      </c>
-      <c r="C17" s="73">
-        <v>5</v>
-      </c>
-      <c r="D17" s="73">
+      <c r="B17" s="45">
+        <v>5</v>
+      </c>
+      <c r="C17" s="45">
+        <v>5</v>
+      </c>
+      <c r="D17" s="45">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E17" s="73">
-        <v>4</v>
-      </c>
-      <c r="F17" s="73">
+      <c r="E17" s="45">
+        <v>4</v>
+      </c>
+      <c r="F17" s="45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G17" s="73">
-        <v>4</v>
-      </c>
-      <c r="H17" s="73">
+      <c r="G17" s="45">
+        <v>4</v>
+      </c>
+      <c r="H17" s="45">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -3582,27 +3582,27 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="73">
-        <v>4</v>
-      </c>
-      <c r="C18" s="73">
-        <v>5</v>
-      </c>
-      <c r="D18" s="73">
+      <c r="B18" s="45">
+        <v>4</v>
+      </c>
+      <c r="C18" s="45">
+        <v>5</v>
+      </c>
+      <c r="D18" s="45">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E18" s="73">
-        <v>3</v>
-      </c>
-      <c r="F18" s="73">
+      <c r="E18" s="45">
+        <v>3</v>
+      </c>
+      <c r="F18" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G18" s="73">
-        <v>3</v>
-      </c>
-      <c r="H18" s="73">
+      <c r="G18" s="45">
+        <v>3</v>
+      </c>
+      <c r="H18" s="45">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -3611,27 +3611,27 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="73">
-        <v>5</v>
-      </c>
-      <c r="C19" s="73">
-        <v>5</v>
-      </c>
-      <c r="D19" s="73">
+      <c r="B19" s="45">
+        <v>5</v>
+      </c>
+      <c r="C19" s="45">
+        <v>5</v>
+      </c>
+      <c r="D19" s="45">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E19" s="73">
-        <v>4</v>
-      </c>
-      <c r="F19" s="73">
+      <c r="E19" s="45">
+        <v>4</v>
+      </c>
+      <c r="F19" s="45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G19" s="73">
-        <v>3</v>
-      </c>
-      <c r="H19" s="73">
+      <c r="G19" s="45">
+        <v>3</v>
+      </c>
+      <c r="H19" s="45">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3640,27 +3640,27 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="73">
-        <v>4</v>
-      </c>
-      <c r="C20" s="73">
-        <v>5</v>
-      </c>
-      <c r="D20" s="73">
+      <c r="B20" s="45">
+        <v>4</v>
+      </c>
+      <c r="C20" s="45">
+        <v>5</v>
+      </c>
+      <c r="D20" s="45">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E20" s="73">
-        <v>3</v>
-      </c>
-      <c r="F20" s="73">
+      <c r="E20" s="45">
+        <v>3</v>
+      </c>
+      <c r="F20" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="45">
         <v>2</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="45">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -3669,27 +3669,27 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="73">
-        <v>5</v>
-      </c>
-      <c r="C21" s="73">
-        <v>3</v>
-      </c>
-      <c r="D21" s="73">
+      <c r="B21" s="45">
+        <v>5</v>
+      </c>
+      <c r="C21" s="45">
+        <v>3</v>
+      </c>
+      <c r="D21" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E21" s="73">
-        <v>5</v>
-      </c>
-      <c r="F21" s="73">
+      <c r="E21" s="45">
+        <v>5</v>
+      </c>
+      <c r="F21" s="45">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G21" s="73">
-        <v>5</v>
-      </c>
-      <c r="H21" s="73">
+      <c r="G21" s="45">
+        <v>5</v>
+      </c>
+      <c r="H21" s="45">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3698,27 +3698,27 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="73">
-        <v>5</v>
-      </c>
-      <c r="C22" s="73">
-        <v>4</v>
-      </c>
-      <c r="D22" s="73">
+      <c r="B22" s="45">
+        <v>5</v>
+      </c>
+      <c r="C22" s="45">
+        <v>4</v>
+      </c>
+      <c r="D22" s="45">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E22" s="73">
-        <v>4</v>
-      </c>
-      <c r="F22" s="73">
+      <c r="E22" s="45">
+        <v>4</v>
+      </c>
+      <c r="F22" s="45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G22" s="73">
-        <v>5</v>
-      </c>
-      <c r="H22" s="73">
+      <c r="G22" s="45">
+        <v>5</v>
+      </c>
+      <c r="H22" s="45">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3727,48 +3727,48 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="73">
-        <v>4</v>
-      </c>
-      <c r="C23" s="73">
-        <v>3</v>
-      </c>
-      <c r="D23" s="73">
+      <c r="B23" s="45">
+        <v>4</v>
+      </c>
+      <c r="C23" s="45">
+        <v>3</v>
+      </c>
+      <c r="D23" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E23" s="73">
-        <v>4</v>
-      </c>
-      <c r="F23" s="73">
+      <c r="E23" s="45">
+        <v>4</v>
+      </c>
+      <c r="F23" s="45">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G23" s="73">
-        <v>4</v>
-      </c>
-      <c r="H23" s="73">
+      <c r="G23" s="45">
+        <v>4</v>
+      </c>
+      <c r="H23" s="45">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3810,7 +3810,7 @@
   <dimension ref="B5:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="I15" sqref="B6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,38 +3823,38 @@
     <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="71"/>
+      <c r="H7" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="32" t="s">
         <v>3</v>
       </c>
@@ -3870,36 +3870,36 @@
       <c r="H8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="74">
-        <v>4</v>
-      </c>
-      <c r="D9" s="74">
-        <v>4</v>
-      </c>
-      <c r="E9" s="74">
-        <f>D9*C9</f>
+      <c r="C9" s="46">
+        <v>4</v>
+      </c>
+      <c r="D9" s="46">
+        <v>4</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" ref="E9:E14" si="0">D9*C9</f>
         <v>16</v>
       </c>
-      <c r="F9" s="74">
-        <v>4</v>
-      </c>
-      <c r="G9" s="74">
-        <f>C9*F9</f>
+      <c r="F9" s="46">
+        <v>4</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" ref="G9:G14" si="1">C9*F9</f>
         <v>16</v>
       </c>
-      <c r="H9" s="74">
-        <v>3</v>
-      </c>
-      <c r="I9" s="75">
-        <f>H9*C9</f>
+      <c r="H9" s="46">
+        <v>3</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" ref="I9:I14" si="2">H9*C9</f>
         <v>12</v>
       </c>
     </row>
@@ -3907,28 +3907,28 @@
       <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="76">
-        <v>5</v>
-      </c>
-      <c r="D10" s="76">
-        <v>5</v>
-      </c>
-      <c r="E10" s="76">
-        <f>D10*C10</f>
+      <c r="C10" s="48">
+        <v>5</v>
+      </c>
+      <c r="D10" s="48">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F10" s="76">
-        <v>5</v>
-      </c>
-      <c r="G10" s="76">
-        <f>C10*F10</f>
+      <c r="F10" s="48">
+        <v>5</v>
+      </c>
+      <c r="G10" s="48">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="48">
         <v>1</v>
       </c>
-      <c r="I10" s="77">
-        <f>H10*C10</f>
+      <c r="I10" s="49">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -3936,28 +3936,28 @@
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="48">
         <v>2</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="48">
         <v>2</v>
       </c>
-      <c r="E11" s="76">
-        <f>D11*C11</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="76">
-        <v>4</v>
-      </c>
-      <c r="G11" s="76">
-        <f>C11*F11</f>
+      <c r="E11" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="48">
+        <v>4</v>
+      </c>
+      <c r="G11" s="48">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H11" s="76">
-        <v>5</v>
-      </c>
-      <c r="I11" s="77">
-        <f>H11*C11</f>
+      <c r="H11" s="48">
+        <v>5</v>
+      </c>
+      <c r="I11" s="49">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -3965,86 +3965,86 @@
       <c r="B12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="76">
-        <v>4</v>
-      </c>
-      <c r="D12" s="76">
-        <v>5</v>
-      </c>
-      <c r="E12" s="76">
-        <f>D12*C12</f>
+      <c r="C12" s="48">
+        <v>4</v>
+      </c>
+      <c r="D12" s="48">
+        <v>5</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F12" s="76">
-        <v>3</v>
-      </c>
-      <c r="G12" s="76">
-        <f>C12*F12</f>
+      <c r="F12" s="48">
+        <v>3</v>
+      </c>
+      <c r="G12" s="48">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H12" s="76">
-        <v>3</v>
-      </c>
-      <c r="I12" s="77">
-        <f>H12*C12</f>
+      <c r="H12" s="48">
+        <v>3</v>
+      </c>
+      <c r="I12" s="49">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="78">
-        <v>3</v>
-      </c>
-      <c r="D13" s="76">
-        <v>5</v>
-      </c>
-      <c r="E13" s="76">
-        <f>D13*C13</f>
+      <c r="C13" s="50">
+        <v>3</v>
+      </c>
+      <c r="D13" s="48">
+        <v>5</v>
+      </c>
+      <c r="E13" s="48">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F13" s="76">
-        <v>3</v>
-      </c>
-      <c r="G13" s="76">
-        <f>C13*F13</f>
+      <c r="F13" s="48">
+        <v>3</v>
+      </c>
+      <c r="G13" s="48">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H13" s="76">
-        <v>3</v>
-      </c>
-      <c r="I13" s="77">
-        <f>H13*C13</f>
+      <c r="H13" s="48">
+        <v>3</v>
+      </c>
+      <c r="I13" s="49">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="78">
-        <v>5</v>
-      </c>
-      <c r="D14" s="78">
-        <v>3</v>
-      </c>
-      <c r="E14" s="76">
-        <f>D14*C14</f>
+      <c r="C14" s="50">
+        <v>5</v>
+      </c>
+      <c r="D14" s="50">
+        <v>3</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F14" s="78">
-        <v>3</v>
-      </c>
-      <c r="G14" s="76">
-        <f>C14*F14</f>
+      <c r="F14" s="50">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H14" s="78">
-        <v>5</v>
-      </c>
-      <c r="I14" s="77">
-        <f>H14*C14</f>
+      <c r="H14" s="50">
+        <v>5</v>
+      </c>
+      <c r="I14" s="49">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -4052,143 +4052,143 @@
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51">
         <f>SUM(E9:E14)</f>
         <v>95</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51">
         <f>SUM(G9:G14)</f>
         <v>85</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80">
+      <c r="H15" s="51"/>
+      <c r="I15" s="52">
         <f>SUM(I9:I14)</f>
         <v>73</v>
       </c>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4210,13 +4210,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B4" sqref="B4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="9" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4228,37 +4229,37 @@
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
@@ -4268,35 +4269,35 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="64">
-        <v>5</v>
-      </c>
-      <c r="D7" s="64">
-        <v>4</v>
-      </c>
-      <c r="E7" s="64">
-        <f>D7*C7</f>
+      <c r="C7" s="38">
+        <v>5</v>
+      </c>
+      <c r="D7" s="38">
+        <v>4</v>
+      </c>
+      <c r="E7" s="38">
+        <f t="shared" ref="E7:E12" si="0">D7*C7</f>
         <v>20</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="38">
         <v>2</v>
       </c>
-      <c r="G7" s="65">
-        <f>C7*F7</f>
+      <c r="G7" s="39">
+        <f t="shared" ref="G7:G12" si="1">C7*F7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
@@ -4309,18 +4310,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="21">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8" s="21">
         <v>1</v>
       </c>
       <c r="G8" s="25">
-        <f>C8*F8</f>
-        <v>4</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
@@ -4333,18 +4334,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="21">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F9" s="21">
         <v>2</v>
       </c>
       <c r="G9" s="25">
-        <f>C9*F9</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
@@ -4357,66 +4358,66 @@
         <v>2</v>
       </c>
       <c r="E10" s="21">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F10" s="21">
         <v>5</v>
       </c>
       <c r="G10" s="25">
-        <f>C10*F10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="35">
         <v>2</v>
       </c>
       <c r="D11" s="21">
         <v>4</v>
       </c>
       <c r="E11" s="21">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F11" s="21">
         <v>3</v>
       </c>
       <c r="G11" s="25">
-        <f>C11*F11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="59">
-        <v>3</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="C12" s="35">
+        <v>3</v>
+      </c>
+      <c r="D12" s="35">
         <v>2</v>
       </c>
       <c r="E12" s="21">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="35">
         <v>5</v>
       </c>
       <c r="G12" s="25">
-        <f>C12*F12</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -4433,17 +4434,17 @@
         <f>SUM(G7:G12)</f>
         <v>61</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4454,7 +4455,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G11" sqref="B4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4466,37 +4467,37 @@
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
@@ -4506,148 +4507,148 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="74">
-        <v>5</v>
-      </c>
-      <c r="D7" s="74">
-        <v>4</v>
-      </c>
-      <c r="E7" s="74">
+      <c r="C7" s="46">
+        <v>5</v>
+      </c>
+      <c r="D7" s="46">
+        <v>4</v>
+      </c>
+      <c r="E7" s="46">
         <f>D7*C7</f>
         <v>20</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="46">
         <v>2</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="47">
         <f>C7*F7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="76">
-        <v>3</v>
-      </c>
-      <c r="D8" s="76">
-        <v>3</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="C8" s="48">
+        <v>3</v>
+      </c>
+      <c r="D8" s="48">
+        <v>3</v>
+      </c>
+      <c r="E8" s="48">
         <f>D8*C8</f>
         <v>9</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="48">
         <v>2</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="49">
         <f>C8*F8</f>
         <v>6</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="76">
-        <v>3</v>
-      </c>
-      <c r="D9" s="76">
-        <v>3</v>
-      </c>
-      <c r="E9" s="76">
+      <c r="C9" s="48">
+        <v>3</v>
+      </c>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
+      <c r="E9" s="48">
         <f>D9*C9</f>
         <v>9</v>
       </c>
-      <c r="F9" s="76">
-        <v>4</v>
-      </c>
-      <c r="G9" s="77">
+      <c r="F9" s="48">
+        <v>4</v>
+      </c>
+      <c r="G9" s="49">
         <f>C9*F9</f>
         <v>12</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="48">
         <v>2</v>
       </c>
-      <c r="D10" s="76">
-        <v>5</v>
-      </c>
-      <c r="E10" s="76">
+      <c r="D10" s="48">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48">
         <f>D10*C10</f>
         <v>10</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="48">
         <v>2</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="49">
         <f>C10*F10</f>
         <v>4</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51">
         <f ca="1">SUM(E7:E12)</f>
         <v>48</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80">
+      <c r="F11" s="51"/>
+      <c r="G11" s="52">
         <f ca="1">SUM(G7:G12)</f>
         <v>32</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="58"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4657,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA65F3-E5E7-4F74-BCEC-7F7D1FEF753C}">
   <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4671,38 +4672,38 @@
     <row r="5" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="71"/>
+      <c r="I6" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="32" t="s">
         <v>3</v>
       </c>
@@ -4718,35 +4719,35 @@
       <c r="I7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="76">
-        <v>5</v>
-      </c>
-      <c r="E8" s="76">
-        <v>3</v>
-      </c>
-      <c r="F8" s="76">
+      <c r="D8" s="48">
+        <v>5</v>
+      </c>
+      <c r="E8" s="48">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48">
         <f>D8*E8</f>
         <v>15</v>
       </c>
-      <c r="G8" s="76">
-        <v>4</v>
-      </c>
-      <c r="H8" s="76">
+      <c r="G8" s="48">
+        <v>4</v>
+      </c>
+      <c r="H8" s="48">
         <f>D8*G8</f>
         <v>20</v>
       </c>
-      <c r="I8" s="76">
-        <v>4</v>
-      </c>
-      <c r="J8" s="76">
+      <c r="I8" s="48">
+        <v>4</v>
+      </c>
+      <c r="J8" s="48">
         <f>I8*D8</f>
         <v>20</v>
       </c>
@@ -4755,27 +4756,27 @@
       <c r="C9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="76">
-        <v>5</v>
-      </c>
-      <c r="E9" s="76">
-        <v>5</v>
-      </c>
-      <c r="F9" s="76">
+      <c r="D9" s="48">
+        <v>5</v>
+      </c>
+      <c r="E9" s="48">
+        <v>5</v>
+      </c>
+      <c r="F9" s="48">
         <f t="shared" ref="F9:F13" si="0">D9*E9</f>
         <v>25</v>
       </c>
-      <c r="G9" s="76">
-        <v>3</v>
-      </c>
-      <c r="H9" s="76">
+      <c r="G9" s="48">
+        <v>3</v>
+      </c>
+      <c r="H9" s="48">
         <f t="shared" ref="H9:H13" si="1">D9*G9</f>
         <v>15</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="48">
         <v>2</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="48">
         <f t="shared" ref="J9:J13" si="2">I9*D9</f>
         <v>10</v>
       </c>
@@ -4784,27 +4785,27 @@
       <c r="C10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="76">
-        <v>3</v>
-      </c>
-      <c r="E10" s="76">
-        <v>5</v>
-      </c>
-      <c r="F10" s="76">
+      <c r="D10" s="48">
+        <v>3</v>
+      </c>
+      <c r="E10" s="48">
+        <v>5</v>
+      </c>
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G10" s="76">
-        <v>3</v>
-      </c>
-      <c r="H10" s="76">
+      <c r="G10" s="48">
+        <v>3</v>
+      </c>
+      <c r="H10" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="48">
         <v>2</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="48">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -4813,85 +4814,85 @@
       <c r="C11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="76">
-        <v>4</v>
-      </c>
-      <c r="E11" s="76">
-        <v>5</v>
-      </c>
-      <c r="F11" s="76">
+      <c r="D11" s="48">
+        <v>4</v>
+      </c>
+      <c r="E11" s="48">
+        <v>5</v>
+      </c>
+      <c r="F11" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G11" s="76">
-        <v>4</v>
-      </c>
-      <c r="H11" s="76">
+      <c r="G11" s="48">
+        <v>4</v>
+      </c>
+      <c r="H11" s="48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I11" s="76">
-        <v>4</v>
-      </c>
-      <c r="J11" s="76">
+      <c r="I11" s="48">
+        <v>4</v>
+      </c>
+      <c r="J11" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="50">
         <v>2</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="48">
         <v>1</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="76">
-        <v>5</v>
-      </c>
-      <c r="H12" s="76">
+      <c r="G12" s="48">
+        <v>5</v>
+      </c>
+      <c r="H12" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="76">
-        <v>3</v>
-      </c>
-      <c r="J12" s="76">
+      <c r="I12" s="48">
+        <v>3</v>
+      </c>
+      <c r="J12" s="48">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="50">
         <v>2</v>
       </c>
-      <c r="E13" s="78">
-        <v>4</v>
-      </c>
-      <c r="F13" s="76">
+      <c r="E13" s="50">
+        <v>4</v>
+      </c>
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13" s="78">
-        <v>4</v>
-      </c>
-      <c r="H13" s="76">
+      <c r="G13" s="50">
+        <v>4</v>
+      </c>
+      <c r="H13" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="48">
         <v>1</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4900,19 +4901,19 @@
       <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51">
         <f>SUM(F8:F13)</f>
         <v>85</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51">
         <f>SUM(H8:H13)</f>
         <v>78</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80">
+      <c r="I14" s="51"/>
+      <c r="J14" s="52">
         <f>SUM(J8:J13)</f>
         <v>60</v>
       </c>
@@ -4931,12 +4932,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5098,15 +5096,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5130,17 +5139,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851C1473-7608-43DA-A288-F18A7576E91F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09623E1A-2FEF-49E9-BEF0-661D27C6EBE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b01810b4-46bc-4b16-bbb7-ff0231894c60"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>